--- a/final_victim_entities.xlsx
+++ b/final_victim_entities.xlsx
@@ -455,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA85"/>
+  <dimension ref="A1:AE85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -526,75 +526,95 @@
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
+          <t>canonical_offender_age</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>canonical_offender_sex</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>canonical_offender_race</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>canonical_offender_ethnicity</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
           <t>lat_centroid</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>lon_centroid</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>canonical_age</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>avg_age</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>min_age</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>max_age</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>mode_weapon</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>mode_circumstance</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>offender_fullname</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>offender_forename</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>offender_surname</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>cluster_size</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>article_ids_csv</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>category</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>band_key</t>
         </is>
@@ -737,57 +757,65 @@
         </is>
       </c>
       <c r="M2" t="n">
+        <v>27</v>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="Q2" t="n">
         <v>38.90907631</v>
       </c>
-      <c r="N2" t="n">
+      <c r="R2" t="n">
         <v>-77.01917844</v>
       </c>
-      <c r="O2" t="n">
+      <c r="S2" t="n">
         <v>25</v>
       </c>
-      <c r="P2" t="n">
+      <c r="T2" t="n">
         <v>25</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="U2" t="n">
         <v>25</v>
       </c>
-      <c r="R2" t="n">
+      <c r="V2" t="n">
         <v>25</v>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="W2" t="inlineStr">
         <is>
           <t>firearm</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
         <is>
           <t>darnell smith</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>darnell</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
+      <c r="AA2" t="inlineStr">
         <is>
           <t>smith</t>
         </is>
       </c>
-      <c r="X2" t="n">
+      <c r="AB2" t="n">
         <v>1</v>
       </c>
-      <c r="Y2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>100046699</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>unmatched_entity</t>
         </is>
       </c>
-      <c r="AA2" t="n">
+      <c r="AE2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -927,48 +955,48 @@
           <t>male</t>
         </is>
       </c>
-      <c r="M3" t="n">
+      <c r="Q3" t="n">
         <v>38.91305802</v>
       </c>
-      <c r="N3" t="n">
+      <c r="R3" t="n">
         <v>-77.02422436000001</v>
       </c>
-      <c r="O3" t="n">
+      <c r="S3" t="n">
         <v>14</v>
       </c>
-      <c r="P3" t="n">
+      <c r="T3" t="n">
         <v>14</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="U3" t="n">
         <v>14</v>
       </c>
-      <c r="R3" t="n">
+      <c r="V3" t="n">
         <v>14</v>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="W3" t="inlineStr">
         <is>
           <t>fire</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="X3" t="inlineStr">
         <is>
           <t>arson</t>
         </is>
       </c>
-      <c r="X3" t="n">
+      <c r="AB3" t="n">
         <v>1</v>
       </c>
-      <c r="Y3" t="inlineStr">
+      <c r="AC3" t="inlineStr">
         <is>
           <t>100056434</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
+      <c r="AD3" t="inlineStr">
         <is>
           <t>unmatched_entity</t>
         </is>
       </c>
-      <c r="AA3" t="n">
+      <c r="AE3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1109,57 +1137,65 @@
         </is>
       </c>
       <c r="M4" t="n">
+        <v>27</v>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="Q4" t="n">
         <v>38.90907631</v>
       </c>
-      <c r="N4" t="n">
+      <c r="R4" t="n">
         <v>-77.01917844</v>
       </c>
-      <c r="O4" t="n">
+      <c r="S4" t="n">
         <v>30</v>
       </c>
-      <c r="P4" t="n">
+      <c r="T4" t="n">
         <v>30</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="U4" t="n">
         <v>30</v>
       </c>
-      <c r="R4" t="n">
+      <c r="V4" t="n">
         <v>30</v>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="W4" t="inlineStr">
         <is>
           <t>firearm</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="Y4" t="inlineStr">
         <is>
           <t>darnell smith</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="Z4" t="inlineStr">
         <is>
           <t>darnell</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
+      <c r="AA4" t="inlineStr">
         <is>
           <t>smith</t>
         </is>
       </c>
-      <c r="X4" t="n">
+      <c r="AB4" t="n">
         <v>1</v>
       </c>
-      <c r="Y4" t="inlineStr">
+      <c r="AC4" t="inlineStr">
         <is>
           <t>100046699</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
+      <c r="AD4" t="inlineStr">
         <is>
           <t>unmatched_entity</t>
         </is>
       </c>
-      <c r="AA4" t="n">
+      <c r="AE4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1299,48 +1335,48 @@
           <t>male</t>
         </is>
       </c>
-      <c r="M5" t="n">
+      <c r="Q5" t="n">
         <v>38.88619451</v>
       </c>
-      <c r="N5" t="n">
+      <c r="R5" t="n">
         <v>-76.99287210999999</v>
       </c>
-      <c r="O5" t="n">
+      <c r="S5" t="n">
         <v>42</v>
       </c>
-      <c r="P5" t="n">
+      <c r="T5" t="n">
         <v>42</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="U5" t="n">
         <v>42</v>
       </c>
-      <c r="R5" t="n">
+      <c r="V5" t="n">
         <v>42</v>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="W5" t="inlineStr">
         <is>
           <t>knife</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="X5" t="inlineStr">
         <is>
           <t>robbery</t>
         </is>
       </c>
-      <c r="X5" t="n">
+      <c r="AB5" t="n">
         <v>1</v>
       </c>
-      <c r="Y5" t="inlineStr">
+      <c r="AC5" t="inlineStr">
         <is>
           <t>100047107</t>
         </is>
       </c>
-      <c r="Z5" t="inlineStr">
+      <c r="AD5" t="inlineStr">
         <is>
           <t>unmatched_entity</t>
         </is>
       </c>
-      <c r="AA5" t="n">
+      <c r="AE5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1480,42 +1516,42 @@
           <t>male</t>
         </is>
       </c>
-      <c r="O6" t="n">
+      <c r="S6" t="n">
         <v>35</v>
       </c>
-      <c r="P6" t="n">
+      <c r="T6" t="n">
         <v>35</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="U6" t="n">
         <v>35</v>
       </c>
-      <c r="R6" t="n">
+      <c r="V6" t="n">
         <v>35</v>
       </c>
-      <c r="S6" t="inlineStr">
+      <c r="W6" t="inlineStr">
         <is>
           <t>firearm</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="X6" t="inlineStr">
         <is>
           <t>robbery</t>
         </is>
       </c>
-      <c r="X6" t="n">
+      <c r="AB6" t="n">
         <v>1</v>
       </c>
-      <c r="Y6" t="inlineStr">
+      <c r="AC6" t="inlineStr">
         <is>
           <t>100050465</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
+      <c r="AD6" t="inlineStr">
         <is>
           <t>unmatched_entity</t>
         </is>
       </c>
-      <c r="AA6" t="n">
+      <c r="AE6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1653,57 +1689,65 @@
         </is>
       </c>
       <c r="M7" t="n">
+        <v>18</v>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="Q7" t="n">
         <v>38.9121327</v>
       </c>
-      <c r="N7" t="n">
+      <c r="R7" t="n">
         <v>-77.0360594</v>
       </c>
-      <c r="O7" t="n">
+      <c r="S7" t="n">
         <v>85</v>
       </c>
-      <c r="P7" t="n">
+      <c r="T7" t="n">
         <v>85</v>
       </c>
-      <c r="Q7" t="n">
+      <c r="U7" t="n">
         <v>85</v>
       </c>
-      <c r="R7" t="n">
+      <c r="V7" t="n">
         <v>85</v>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="X7" t="inlineStr">
         <is>
           <t>robbery</t>
         </is>
       </c>
-      <c r="U7" t="inlineStr">
+      <c r="Y7" t="inlineStr">
         <is>
           <t>frank mason</t>
         </is>
       </c>
-      <c r="V7" t="inlineStr">
+      <c r="Z7" t="inlineStr">
         <is>
           <t>frank</t>
         </is>
       </c>
-      <c r="W7" t="inlineStr">
+      <c r="AA7" t="inlineStr">
         <is>
           <t>mason</t>
         </is>
       </c>
-      <c r="X7" t="n">
+      <c r="AB7" t="n">
         <v>1</v>
       </c>
-      <c r="Y7" t="inlineStr">
+      <c r="AC7" t="inlineStr">
         <is>
           <t>100053744</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
+      <c r="AD7" t="inlineStr">
         <is>
           <t>unmatched_entity</t>
         </is>
       </c>
-      <c r="AA7" t="n">
+      <c r="AE7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1732,35 +1776,35 @@
           <t>female</t>
         </is>
       </c>
-      <c r="S8" t="inlineStr">
+      <c r="W8" t="inlineStr">
         <is>
           <t>unknown</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
+      <c r="X8" t="inlineStr">
         <is>
           <t>other</t>
         </is>
       </c>
-      <c r="U8" t="inlineStr">
+      <c r="Y8" t="inlineStr">
         <is>
           <t>Ray Urgo</t>
         </is>
       </c>
-      <c r="X8" t="n">
+      <c r="AB8" t="n">
         <v>1</v>
       </c>
-      <c r="Y8" t="inlineStr">
+      <c r="AC8" t="inlineStr">
         <is>
           <t>100037654</t>
         </is>
       </c>
-      <c r="Z8" t="inlineStr">
+      <c r="AD8" t="inlineStr">
         <is>
           <t>singleton_orphan</t>
         </is>
       </c>
-      <c r="AA8" t="n">
+      <c r="AE8" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1900,48 +1944,48 @@
           <t>male</t>
         </is>
       </c>
-      <c r="M9" t="n">
+      <c r="Q9" t="n">
         <v>38.90217599</v>
       </c>
-      <c r="N9" t="n">
+      <c r="R9" t="n">
         <v>-77.03256226000001</v>
       </c>
-      <c r="O9" t="n">
+      <c r="S9" t="n">
         <v>65</v>
       </c>
-      <c r="P9" t="n">
+      <c r="T9" t="n">
         <v>65</v>
       </c>
-      <c r="Q9" t="n">
+      <c r="U9" t="n">
         <v>65</v>
       </c>
-      <c r="R9" t="n">
+      <c r="V9" t="n">
         <v>65</v>
       </c>
-      <c r="S9" t="inlineStr">
+      <c r="W9" t="inlineStr">
         <is>
           <t>knife</t>
         </is>
       </c>
-      <c r="T9" t="inlineStr">
+      <c r="X9" t="inlineStr">
         <is>
           <t>robbery</t>
         </is>
       </c>
-      <c r="X9" t="n">
+      <c r="AB9" t="n">
         <v>1</v>
       </c>
-      <c r="Y9" t="inlineStr">
+      <c r="AC9" t="inlineStr">
         <is>
           <t>100048880</t>
         </is>
       </c>
-      <c r="Z9" t="inlineStr">
+      <c r="AD9" t="inlineStr">
         <is>
           <t>unmatched_entity</t>
         </is>
       </c>
-      <c r="AA9" t="n">
+      <c r="AE9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2081,43 +2125,43 @@
           <t>male</t>
         </is>
       </c>
-      <c r="M10" t="n">
+      <c r="Q10" t="n">
         <v>38.83228173</v>
       </c>
-      <c r="N10" t="n">
+      <c r="R10" t="n">
         <v>-76.98947887</v>
       </c>
-      <c r="O10" t="n">
+      <c r="S10" t="n">
         <v>54</v>
       </c>
-      <c r="P10" t="n">
+      <c r="T10" t="n">
         <v>54</v>
       </c>
-      <c r="Q10" t="n">
+      <c r="U10" t="n">
         <v>54</v>
       </c>
-      <c r="R10" t="n">
+      <c r="V10" t="n">
         <v>54</v>
       </c>
-      <c r="S10" t="inlineStr">
+      <c r="W10" t="inlineStr">
         <is>
           <t>firearm</t>
         </is>
       </c>
-      <c r="X10" t="n">
+      <c r="AB10" t="n">
         <v>1</v>
       </c>
-      <c r="Y10" t="inlineStr">
+      <c r="AC10" t="inlineStr">
         <is>
           <t>100051238</t>
         </is>
       </c>
-      <c r="Z10" t="inlineStr">
+      <c r="AD10" t="inlineStr">
         <is>
           <t>unmatched_entity</t>
         </is>
       </c>
-      <c r="AA10" t="n">
+      <c r="AE10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2258,62 +2302,70 @@
         </is>
       </c>
       <c r="M11" t="n">
+        <v>37</v>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="Q11" t="n">
         <v>38.93249976</v>
       </c>
-      <c r="N11" t="n">
+      <c r="R11" t="n">
         <v>-76.987799</v>
       </c>
-      <c r="O11" t="n">
+      <c r="S11" t="n">
         <v>64</v>
       </c>
-      <c r="P11" t="n">
+      <c r="T11" t="n">
         <v>64</v>
       </c>
-      <c r="Q11" t="n">
+      <c r="U11" t="n">
         <v>64</v>
       </c>
-      <c r="R11" t="n">
+      <c r="V11" t="n">
         <v>64</v>
       </c>
-      <c r="S11" t="inlineStr">
+      <c r="W11" t="inlineStr">
         <is>
           <t>firearm</t>
         </is>
       </c>
-      <c r="T11" t="inlineStr">
+      <c r="X11" t="inlineStr">
         <is>
           <t>argument</t>
         </is>
       </c>
-      <c r="U11" t="inlineStr">
+      <c r="Y11" t="inlineStr">
         <is>
           <t>charles payne</t>
         </is>
       </c>
-      <c r="V11" t="inlineStr">
+      <c r="Z11" t="inlineStr">
         <is>
           <t>charles</t>
         </is>
       </c>
-      <c r="W11" t="inlineStr">
+      <c r="AA11" t="inlineStr">
         <is>
           <t>payne</t>
         </is>
       </c>
-      <c r="X11" t="n">
+      <c r="AB11" t="n">
         <v>1</v>
       </c>
-      <c r="Y11" t="inlineStr">
+      <c r="AC11" t="inlineStr">
         <is>
           <t>100057078</t>
         </is>
       </c>
-      <c r="Z11" t="inlineStr">
+      <c r="AD11" t="inlineStr">
         <is>
           <t>unmatched_entity</t>
         </is>
       </c>
-      <c r="AA11" t="n">
+      <c r="AE11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2453,43 +2505,43 @@
           <t>female</t>
         </is>
       </c>
-      <c r="M12" t="n">
+      <c r="Q12" t="n">
         <v>38.8796229150195</v>
       </c>
-      <c r="N12" t="n">
+      <c r="R12" t="n">
         <v>-76.9320514841373</v>
       </c>
-      <c r="O12" t="n">
+      <c r="S12" t="n">
         <v>21</v>
       </c>
-      <c r="P12" t="n">
+      <c r="T12" t="n">
         <v>21</v>
       </c>
-      <c r="Q12" t="n">
+      <c r="U12" t="n">
         <v>21</v>
       </c>
-      <c r="R12" t="n">
+      <c r="V12" t="n">
         <v>21</v>
       </c>
-      <c r="S12" t="inlineStr">
+      <c r="W12" t="inlineStr">
         <is>
           <t>strangulation</t>
         </is>
       </c>
-      <c r="X12" t="n">
+      <c r="AB12" t="n">
         <v>1</v>
       </c>
-      <c r="Y12" t="inlineStr">
+      <c r="AC12" t="inlineStr">
         <is>
           <t>100052572</t>
         </is>
       </c>
-      <c r="Z12" t="inlineStr">
+      <c r="AD12" t="inlineStr">
         <is>
           <t>unmatched_entity</t>
         </is>
       </c>
-      <c r="AA12" t="n">
+      <c r="AE12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2630,62 +2682,70 @@
         </is>
       </c>
       <c r="M13" t="n">
+        <v>26</v>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="Q13" t="n">
         <v>38.8298789633341</v>
       </c>
-      <c r="N13" t="n">
+      <c r="R13" t="n">
         <v>-76.99372341994039</v>
       </c>
-      <c r="O13" t="n">
+      <c r="S13" t="n">
         <v>2</v>
       </c>
-      <c r="P13" t="n">
+      <c r="T13" t="n">
         <v>2</v>
       </c>
-      <c r="Q13" t="n">
+      <c r="U13" t="n">
         <v>2</v>
       </c>
-      <c r="R13" t="n">
+      <c r="V13" t="n">
         <v>2</v>
       </c>
-      <c r="S13" t="inlineStr">
+      <c r="W13" t="inlineStr">
         <is>
           <t>blunt object</t>
         </is>
       </c>
-      <c r="T13" t="inlineStr">
+      <c r="X13" t="inlineStr">
         <is>
           <t>other</t>
         </is>
       </c>
-      <c r="U13" t="inlineStr">
+      <c r="Y13" t="inlineStr">
         <is>
           <t>gary jackson</t>
         </is>
       </c>
-      <c r="V13" t="inlineStr">
+      <c r="Z13" t="inlineStr">
         <is>
           <t>gary</t>
         </is>
       </c>
-      <c r="W13" t="inlineStr">
+      <c r="AA13" t="inlineStr">
         <is>
           <t>jackson</t>
         </is>
       </c>
-      <c r="X13" t="n">
+      <c r="AB13" t="n">
         <v>1</v>
       </c>
-      <c r="Y13" t="inlineStr">
+      <c r="AC13" t="inlineStr">
         <is>
           <t>100053586</t>
         </is>
       </c>
-      <c r="Z13" t="inlineStr">
+      <c r="AD13" t="inlineStr">
         <is>
           <t>unmatched_entity</t>
         </is>
       </c>
-      <c r="AA13" t="n">
+      <c r="AE13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2825,48 +2885,48 @@
           <t>male</t>
         </is>
       </c>
-      <c r="M14" t="n">
+      <c r="Q14" t="n">
         <v>38.85976209</v>
       </c>
-      <c r="N14" t="n">
+      <c r="R14" t="n">
         <v>-76.99535457</v>
       </c>
-      <c r="O14" t="n">
+      <c r="S14" t="n">
         <v>32</v>
       </c>
-      <c r="P14" t="n">
+      <c r="T14" t="n">
         <v>32</v>
       </c>
-      <c r="Q14" t="n">
+      <c r="U14" t="n">
         <v>32</v>
       </c>
-      <c r="R14" t="n">
+      <c r="V14" t="n">
         <v>32</v>
       </c>
-      <c r="S14" t="inlineStr">
+      <c r="W14" t="inlineStr">
         <is>
           <t>firearm</t>
         </is>
       </c>
-      <c r="T14" t="inlineStr">
+      <c r="X14" t="inlineStr">
         <is>
           <t>robbery</t>
         </is>
       </c>
-      <c r="X14" t="n">
+      <c r="AB14" t="n">
         <v>1</v>
       </c>
-      <c r="Y14" t="inlineStr">
+      <c r="AC14" t="inlineStr">
         <is>
           <t>100054118</t>
         </is>
       </c>
-      <c r="Z14" t="inlineStr">
+      <c r="AD14" t="inlineStr">
         <is>
           <t>unmatched_entity</t>
         </is>
       </c>
-      <c r="AA14" t="n">
+      <c r="AE14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3007,62 +3067,70 @@
         </is>
       </c>
       <c r="M15" t="n">
+        <v>44</v>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="Q15" t="n">
         <v>38.92126759482429</v>
       </c>
-      <c r="N15" t="n">
+      <c r="R15" t="n">
         <v>-77.03212540070517</v>
       </c>
-      <c r="O15" t="n">
+      <c r="S15" t="n">
         <v>21</v>
       </c>
-      <c r="P15" t="n">
+      <c r="T15" t="n">
         <v>21</v>
       </c>
-      <c r="Q15" t="n">
+      <c r="U15" t="n">
         <v>21</v>
       </c>
-      <c r="R15" t="n">
+      <c r="V15" t="n">
         <v>21</v>
       </c>
-      <c r="S15" t="inlineStr">
+      <c r="W15" t="inlineStr">
         <is>
           <t>firearm</t>
         </is>
       </c>
-      <c r="T15" t="inlineStr">
+      <c r="X15" t="inlineStr">
         <is>
           <t>robbery</t>
         </is>
       </c>
-      <c r="U15" t="inlineStr">
+      <c r="Y15" t="inlineStr">
         <is>
           <t>harold mitchell</t>
         </is>
       </c>
-      <c r="V15" t="inlineStr">
+      <c r="Z15" t="inlineStr">
         <is>
           <t>harold</t>
         </is>
       </c>
-      <c r="W15" t="inlineStr">
+      <c r="AA15" t="inlineStr">
         <is>
           <t>mitchell</t>
         </is>
       </c>
-      <c r="X15" t="n">
+      <c r="AB15" t="n">
         <v>3</v>
       </c>
-      <c r="Y15" t="inlineStr">
+      <c r="AC15" t="inlineStr">
         <is>
           <t>100054861,100056154,100031818</t>
         </is>
       </c>
-      <c r="Z15" t="inlineStr">
+      <c r="AD15" t="inlineStr">
         <is>
           <t>newly_matched</t>
         </is>
       </c>
-      <c r="AA15" t="n">
+      <c r="AE15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3198,62 +3266,70 @@
         </is>
       </c>
       <c r="M16" t="n">
+        <v>21</v>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="Q16" t="n">
         <v>38.887381324016</v>
       </c>
-      <c r="N16" t="n">
+      <c r="R16" t="n">
         <v>-77.02039818175965</v>
       </c>
-      <c r="O16" t="n">
+      <c r="S16" t="n">
         <v>29</v>
       </c>
-      <c r="P16" t="n">
+      <c r="T16" t="n">
         <v>29</v>
       </c>
-      <c r="Q16" t="n">
+      <c r="U16" t="n">
         <v>29</v>
       </c>
-      <c r="R16" t="n">
+      <c r="V16" t="n">
         <v>29</v>
       </c>
-      <c r="S16" t="inlineStr">
+      <c r="W16" t="inlineStr">
         <is>
           <t>handgun</t>
         </is>
       </c>
-      <c r="T16" t="inlineStr">
+      <c r="X16" t="inlineStr">
         <is>
           <t>negligence</t>
         </is>
       </c>
-      <c r="U16" t="inlineStr">
+      <c r="Y16" t="inlineStr">
         <is>
           <t>calvin spruill</t>
         </is>
       </c>
-      <c r="V16" t="inlineStr">
+      <c r="Z16" t="inlineStr">
         <is>
           <t>calvin</t>
         </is>
       </c>
-      <c r="W16" t="inlineStr">
+      <c r="AA16" t="inlineStr">
         <is>
           <t>spruill</t>
         </is>
       </c>
-      <c r="X16" t="n">
+      <c r="AB16" t="n">
         <v>2</v>
       </c>
-      <c r="Y16" t="inlineStr">
+      <c r="AC16" t="inlineStr">
         <is>
           <t>100055731,100059587</t>
         </is>
       </c>
-      <c r="Z16" t="inlineStr">
+      <c r="AD16" t="inlineStr">
         <is>
           <t>newly_matched</t>
         </is>
       </c>
-      <c r="AA16" t="n">
+      <c r="AE16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3394,62 +3470,70 @@
         </is>
       </c>
       <c r="M17" t="n">
+        <v>39</v>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="Q17" t="n">
         <v>38.8323524593257</v>
       </c>
-      <c r="N17" t="n">
+      <c r="R17" t="n">
         <v>-76.9893398443496</v>
       </c>
-      <c r="O17" t="n">
+      <c r="S17" t="n">
         <v>51</v>
       </c>
-      <c r="P17" t="n">
+      <c r="T17" t="n">
         <v>51</v>
       </c>
-      <c r="Q17" t="n">
+      <c r="U17" t="n">
         <v>51</v>
       </c>
-      <c r="R17" t="n">
+      <c r="V17" t="n">
         <v>51</v>
       </c>
-      <c r="S17" t="inlineStr">
+      <c r="W17" t="inlineStr">
         <is>
           <t>knife</t>
         </is>
       </c>
-      <c r="T17" t="inlineStr">
+      <c r="X17" t="inlineStr">
         <is>
           <t>argument</t>
         </is>
       </c>
-      <c r="U17" t="inlineStr">
+      <c r="Y17" t="inlineStr">
         <is>
           <t>joe johnson</t>
         </is>
       </c>
-      <c r="V17" t="inlineStr">
+      <c r="Z17" t="inlineStr">
         <is>
           <t>joe</t>
         </is>
       </c>
-      <c r="W17" t="inlineStr">
+      <c r="AA17" t="inlineStr">
         <is>
           <t>johnson</t>
         </is>
       </c>
-      <c r="X17" t="n">
+      <c r="AB17" t="n">
         <v>1</v>
       </c>
-      <c r="Y17" t="inlineStr">
+      <c r="AC17" t="inlineStr">
         <is>
           <t>100057078</t>
         </is>
       </c>
-      <c r="Z17" t="inlineStr">
+      <c r="AD17" t="inlineStr">
         <is>
           <t>unmatched_entity</t>
         </is>
       </c>
-      <c r="AA17" t="n">
+      <c r="AE17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3589,43 +3673,43 @@
           <t>male</t>
         </is>
       </c>
-      <c r="M18" t="n">
+      <c r="Q18" t="n">
         <v>38.9542359408298</v>
       </c>
-      <c r="N18" t="n">
+      <c r="R18" t="n">
         <v>-77.0222109642604</v>
       </c>
-      <c r="O18" t="n">
+      <c r="S18" t="n">
         <v>27</v>
       </c>
-      <c r="P18" t="n">
+      <c r="T18" t="n">
         <v>27</v>
       </c>
-      <c r="Q18" t="n">
+      <c r="U18" t="n">
         <v>27</v>
       </c>
-      <c r="R18" t="n">
+      <c r="V18" t="n">
         <v>27</v>
       </c>
-      <c r="S18" t="inlineStr">
+      <c r="W18" t="inlineStr">
         <is>
           <t>handgun</t>
         </is>
       </c>
-      <c r="X18" t="n">
+      <c r="AB18" t="n">
         <v>1</v>
       </c>
-      <c r="Y18" t="inlineStr">
+      <c r="AC18" t="inlineStr">
         <is>
           <t>100057635</t>
         </is>
       </c>
-      <c r="Z18" t="inlineStr">
+      <c r="AD18" t="inlineStr">
         <is>
           <t>unmatched_entity</t>
         </is>
       </c>
-      <c r="AA18" t="n">
+      <c r="AE18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3766,76 +3850,187 @@
         </is>
       </c>
       <c r="M19" t="n">
+        <v>26</v>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="Q19" t="n">
         <v>38.86106665</v>
       </c>
-      <c r="N19" t="n">
+      <c r="R19" t="n">
         <v>-76.98584672</v>
       </c>
-      <c r="O19" t="n">
+      <c r="S19" t="n">
         <v>40</v>
       </c>
-      <c r="P19" t="n">
+      <c r="T19" t="n">
         <v>40</v>
       </c>
-      <c r="Q19" t="n">
+      <c r="U19" t="n">
         <v>40</v>
       </c>
-      <c r="R19" t="n">
+      <c r="V19" t="n">
         <v>40</v>
       </c>
-      <c r="S19" t="inlineStr">
+      <c r="W19" t="inlineStr">
         <is>
           <t>knife</t>
         </is>
       </c>
-      <c r="T19" t="inlineStr">
+      <c r="X19" t="inlineStr">
         <is>
           <t>argument</t>
         </is>
       </c>
-      <c r="U19" t="inlineStr">
+      <c r="Y19" t="inlineStr">
         <is>
           <t>marie polite</t>
         </is>
       </c>
-      <c r="V19" t="inlineStr">
+      <c r="Z19" t="inlineStr">
         <is>
           <t>marie</t>
         </is>
       </c>
-      <c r="W19" t="inlineStr">
+      <c r="AA19" t="inlineStr">
         <is>
           <t>polite</t>
         </is>
       </c>
-      <c r="X19" t="n">
+      <c r="AB19" t="n">
         <v>1</v>
       </c>
-      <c r="Y19" t="inlineStr">
+      <c r="AC19" t="inlineStr">
         <is>
           <t>100057743</t>
         </is>
       </c>
-      <c r="Z19" t="inlineStr">
+      <c r="AD19" t="inlineStr">
         <is>
           <t>unmatched_entity</t>
         </is>
       </c>
-      <c r="AA19" t="n">
+      <c r="AE19" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>100058703:0:0</t>
-        </is>
+          <t>100058475:0:0</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>2</v>
       </c>
       <c r="C20" t="n">
-        <v>2624</v>
+        <v>2616</v>
       </c>
       <c r="D20" t="n">
-        <v>2624</v>
+        <v>2646</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>[ 4.33316734e-03  5.45734502e-02 -9.68052025e-02  1.98728351e-02
+  4.30013320e-02 -1.34565958e-02  5.08127958e-02  2.00047251e-02
+ -4.95081808e-02  1.06473764e-01  7.82659973e-02 -5.53269790e-02
+  1.99472637e-02 -9.30517415e-03 -2.80241690e-02 -3.55352441e-02
+ -5.58904527e-02 -5.60193732e-02 -7.66330411e-02  1.38919617e-02
+ -9.27796091e-02  3.70959186e-02 -1.46129054e-02  2.58919249e-02
+  5.20213768e-02 -3.75753765e-02 -1.24376030e-02  3.46253843e-03
+ -5.59058332e-02 -4.99914922e-02 -4.85075526e-02 -1.09046559e-01
+  6.62578071e-02  1.55075819e-02  9.59410782e-03 -7.76508326e-03
+  8.16456104e-02  3.99985195e-02 -9.77343104e-03 -4.39408856e-03
+  1.94264622e-02  1.57151247e-02 -1.41278636e-02  7.87878782e-03
+ -1.05023719e-01 -3.01562791e-02 -5.41227783e-02 -3.61128120e-02
+  6.01004896e-02  1.07526337e-01 -3.17340499e-02  7.13022655e-02
+ -7.29134865e-03  4.06382342e-03 -1.14036197e-02 -1.56343619e-01
+  1.69624264e-04 -1.16172656e-02 -3.05616682e-02 -2.39171246e-02
+  2.14091571e-02 -1.86879114e-02 -7.30277834e-02 -1.81875405e-02
+  3.21082780e-02 -2.46710799e-02  6.06781493e-05 -6.69201029e-02
+  6.46968583e-02  9.29222753e-03  6.32937265e-02 -8.48696878e-03
+  1.01334260e-03 -4.70329151e-02 -2.11898175e-02  6.16197052e-02
+  1.56114559e-02 -5.50043148e-02  2.67500511e-02  5.26071141e-02
+  6.30653265e-02 -7.96033330e-02  2.07625922e-02  5.93606740e-03
+  7.25522327e-02  4.40123873e-02  6.62184786e-03 -1.52029457e-02
+  2.59193381e-02 -2.76969001e-03 -6.72127927e-02  3.20663794e-02
+  3.02900498e-02  4.85589430e-02  8.15009698e-02 -4.75075978e-02
+  3.51791102e-02  7.32083650e-02 -6.55669173e-02  4.30619475e-02
+  2.66559025e-02  6.06693141e-03 -3.03759022e-02  1.71408157e-02
+ -2.95250810e-02 -2.19398262e-02 -4.93659706e-02 -3.61269998e-02
+ -9.95479971e-02  7.90612962e-03  1.32826810e-02 -1.50902776e-02
+  2.37499451e-02 -4.67121166e-02  8.57752661e-02  7.39282742e-02
+ -3.98700703e-02  3.39919324e-02 -9.16558454e-02 -3.69460961e-02
+ -8.19644068e-03 -7.09776239e-03 -4.59990383e-02  4.27577738e-02
+ -1.62889343e-02  9.38536475e-03  2.79295851e-02  4.21705445e-33
+ -4.36379717e-02  6.15952723e-02 -5.53855449e-02  2.17972662e-02
+  1.09116264e-02 -1.62155407e-02 -1.10169202e-01  4.48060700e-02
+  4.74726440e-02 -1.64479570e-02  3.07042152e-02 -6.00327638e-02
+  9.99299999e-03 -1.02083574e-01 -4.60081232e-02  1.57244597e-02
+  4.29704686e-02  3.19607193e-02 -5.87861389e-02 -4.60869155e-02
+  4.29703187e-03  3.48534069e-02 -6.14454917e-02  1.50929568e-02
+ -2.80415108e-02  3.46212549e-02  3.04585835e-02  3.46198101e-02
+ -4.32814583e-02  1.44844979e-02 -1.92984521e-02 -1.42419065e-02
+  4.06660754e-02 -4.27387787e-03  1.28238423e-02 -1.81684559e-02
+ -3.21574618e-02 -4.21416865e-02 -8.01152938e-04  9.14640725e-04
+  5.24967133e-02  6.72795835e-02  3.12345394e-02 -2.88261138e-02
+ -2.37414449e-02 -2.63308976e-02 -6.24204700e-02  4.21270753e-02
+  1.57890500e-02  7.54228873e-03 -3.19063785e-02 -7.78962889e-03
+ -2.13191225e-02  9.33478974e-04  5.89502218e-02  4.78677073e-02
+ -5.51597141e-02 -1.98747845e-02  7.16048790e-02  7.87775020e-02
+  5.71747161e-02 -2.12304915e-04  1.65829974e-02  3.33188005e-02
+ -5.90720922e-02 -3.85353866e-02 -1.70091142e-02 -6.63818071e-02
+  6.54209293e-02  2.62268670e-02 -6.70818453e-03  2.40309636e-02
+  6.34954572e-02 -4.75506994e-02 -9.76189027e-02  2.26316794e-02
+  4.25274055e-02  6.75730702e-03 -6.10224841e-02  6.32020943e-02
+  2.72269168e-02  2.92623652e-02  6.42770156e-02  4.97741370e-02
+ -6.80912038e-03 -7.47946228e-02  1.66863985e-02 -2.97259434e-02
+ -5.76334906e-02  8.65724608e-02  7.72615895e-04  1.55183299e-02
+ -4.93117105e-02  5.46230624e-04  1.12784514e-02 -4.75304982e-33
+  2.21165152e-02 -2.32817476e-02 -3.52658766e-02 -7.84200964e-02
+ -6.44264896e-03 -4.50917116e-02 -1.86013021e-02  4.50483911e-02
+ -1.41928412e-02 -1.18876730e-02  7.57235177e-02 -1.26774506e-02
+  2.15776167e-02  5.02347810e-02 -1.54238163e-02 -3.25443557e-03
+  1.24975502e-01 -4.20434562e-02  8.04461508e-03  2.38540306e-02
+ -1.78869627e-02 -7.03245923e-02 -7.17669676e-02 -2.22696749e-02
+  3.94255736e-02  5.51827538e-02  6.42855192e-02 -2.92494666e-02
+ -8.13093868e-02  1.92287704e-03  3.24295520e-02  2.86727957e-03
+  1.80715534e-02  3.71766699e-02  1.69617337e-02  9.36811939e-02
+  1.48027857e-01  2.89646601e-02 -4.02062424e-02 -6.02379056e-02
+  5.28692106e-02  8.09308477e-02 -3.31094240e-02  2.86658983e-02
+ -1.29210523e-02 -3.51781361e-02  1.89455229e-02  7.11877619e-02
+  9.33207665e-03 -4.10123256e-02 -1.08725842e-02 -4.80034339e-02
+ -7.15287651e-03  1.89215598e-02 -1.09935771e-02  7.83929291e-04
+  8.82086967e-03 -5.26011959e-02 -5.02561405e-03 -5.34190598e-02
+ -1.33091277e-02 -2.34233976e-02 -1.07347251e-02 -9.30714700e-03
+ -4.08521257e-02 -3.86518519e-02 -5.79603724e-02 -2.23991632e-02
+ -5.73305190e-02  2.09553133e-02  5.36973917e-02  1.22242445e-02
+ -8.21329793e-03 -3.23604746e-02 -3.33307007e-02  3.56821883e-02
+ -1.05394868e-02  1.86674053e-02 -8.62071564e-02 -8.91933776e-03
+ -2.13055398e-03 -2.03652723e-02 -7.81147455e-02  6.18697094e-02
+ -2.42329395e-02  8.97251529e-02  1.04093328e-01  7.22233431e-03
+ -6.84479798e-02 -2.96400771e-02 -3.14887023e-03 -1.04716513e-02
+  7.34263100e-02 -5.27136726e-03 -3.90311962e-02 -3.36010094e-08
+ -2.19221724e-02  1.22480462e-02  2.92769484e-02 -5.28922280e-02
+ -7.51412809e-02  1.33395481e-02  1.40551096e-02  5.29075402e-02
+  5.52189269e-02  6.07961503e-02 -3.45924366e-02  6.18847261e-02
+  5.48859437e-02 -2.34460626e-02  1.36270992e-02 -3.37526575e-02
+ -2.39535067e-02 -6.26645423e-03 -2.02122214e-02 -5.28581124e-02
+ -5.61730238e-04  4.46259541e-03  5.36218844e-02 -4.95907633e-03
+  2.76643715e-02  6.58950744e-02  2.55161040e-02 -9.15053785e-02
+ -3.45362362e-02  2.72631369e-02 -3.77564915e-02 -2.67996701e-02
+ -4.22767053e-03 -3.46078730e-02 -2.04728373e-02  4.87149333e-02
+  1.28118108e-01 -2.30588267e-02 -1.13894381e-01 -8.97337918e-02
+  1.93485245e-03  7.32608760e-03 -9.04310052e-03  1.57681744e-02
+  5.19945001e-02  3.07850701e-02  2.87821982e-03 -3.97047413e-02
+  2.66968353e-02 -7.08326474e-02  5.89988718e-03  7.72469801e-03
+  6.99737606e-02  8.86036580e-03  5.22097976e-02 -4.52428932e-02
+  2.12679642e-02  3.25112650e-03  5.01848062e-02  9.70859677e-02
+  4.82780176e-02  2.07215703e-03 -7.67354233e-03  8.97087126e-03]</t>
+        </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -3848,37 +4043,79 @@
       <c r="H20" t="n">
         <v>2624</v>
       </c>
-      <c r="M20" t="n">
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>maurice williams</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>Non-Hispanic</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
+      <c r="Q20" t="n">
         <v>38.89500269</v>
       </c>
-      <c r="N20" t="n">
+      <c r="R20" t="n">
         <v>-77.03135287000001</v>
       </c>
-      <c r="S20" t="inlineStr">
-        <is>
-          <t>firearm</t>
-        </is>
-      </c>
-      <c r="T20" t="inlineStr">
-        <is>
-          <t>other</t>
-        </is>
-      </c>
-      <c r="X20" t="n">
+      <c r="S20" t="n">
+        <v>24</v>
+      </c>
+      <c r="T20" t="n">
+        <v>23.33333333333333</v>
+      </c>
+      <c r="U20" t="n">
+        <v>22</v>
+      </c>
+      <c r="V20" t="n">
+        <v>24</v>
+      </c>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t>shotgun</t>
+        </is>
+      </c>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>gang killing</t>
+        </is>
+      </c>
+      <c r="AB20" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC20" t="inlineStr">
+        <is>
+          <t>100058678,100058475,100059331,100058703</t>
+        </is>
+      </c>
+      <c r="AD20" t="inlineStr">
+        <is>
+          <t>newly_matched</t>
+        </is>
+      </c>
+      <c r="AE20" t="n">
         <v>1</v>
-      </c>
-      <c r="Y20" t="inlineStr">
-        <is>
-          <t>100058703</t>
-        </is>
-      </c>
-      <c r="Z20" t="inlineStr">
-        <is>
-          <t>singleton_orphan</t>
-        </is>
-      </c>
-      <c r="AA20" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="21">
@@ -4009,30 +4246,30 @@
           <t>r  seavy campbell</t>
         </is>
       </c>
-      <c r="S21" t="inlineStr">
+      <c r="W21" t="inlineStr">
         <is>
           <t>firearm</t>
         </is>
       </c>
-      <c r="T21" t="inlineStr">
+      <c r="X21" t="inlineStr">
         <is>
           <t>other</t>
         </is>
       </c>
-      <c r="X21" t="n">
+      <c r="AB21" t="n">
         <v>1</v>
       </c>
-      <c r="Y21" t="inlineStr">
+      <c r="AC21" t="inlineStr">
         <is>
           <t>100061864</t>
         </is>
       </c>
-      <c r="Z21" t="inlineStr">
+      <c r="AD21" t="inlineStr">
         <is>
           <t>unmatched_entity</t>
         </is>
       </c>
-      <c r="AA21" t="n">
+      <c r="AE21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4173,57 +4410,65 @@
         </is>
       </c>
       <c r="M22" t="n">
+        <v>18</v>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="Q22" t="n">
         <v>38.9019175186715</v>
       </c>
-      <c r="N22" t="n">
+      <c r="R22" t="n">
         <v>-76.99375420307049</v>
       </c>
-      <c r="O22" t="n">
+      <c r="S22" t="n">
         <v>55</v>
       </c>
-      <c r="P22" t="n">
+      <c r="T22" t="n">
         <v>55</v>
       </c>
-      <c r="Q22" t="n">
+      <c r="U22" t="n">
         <v>55</v>
       </c>
-      <c r="R22" t="n">
+      <c r="V22" t="n">
         <v>55</v>
       </c>
-      <c r="S22" t="inlineStr">
+      <c r="W22" t="inlineStr">
         <is>
           <t>firearm</t>
         </is>
       </c>
-      <c r="U22" t="inlineStr">
+      <c r="Y22" t="inlineStr">
         <is>
           <t>michael davis</t>
         </is>
       </c>
-      <c r="V22" t="inlineStr">
+      <c r="Z22" t="inlineStr">
         <is>
           <t>michael</t>
         </is>
       </c>
-      <c r="W22" t="inlineStr">
+      <c r="AA22" t="inlineStr">
         <is>
           <t>davis</t>
         </is>
       </c>
-      <c r="X22" t="n">
+      <c r="AB22" t="n">
         <v>1</v>
       </c>
-      <c r="Y22" t="inlineStr">
+      <c r="AC22" t="inlineStr">
         <is>
           <t>100063971</t>
         </is>
       </c>
-      <c r="Z22" t="inlineStr">
+      <c r="AD22" t="inlineStr">
         <is>
           <t>unmatched_entity</t>
         </is>
       </c>
-      <c r="AA22" t="n">
+      <c r="AE22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4364,62 +4609,70 @@
         </is>
       </c>
       <c r="M23" t="n">
+        <v>31</v>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="Q23" t="n">
         <v>38.96764532</v>
       </c>
-      <c r="N23" t="n">
+      <c r="R23" t="n">
         <v>-77.02776581000001</v>
       </c>
-      <c r="O23" t="n">
+      <c r="S23" t="n">
         <v>20</v>
       </c>
-      <c r="P23" t="n">
+      <c r="T23" t="n">
         <v>20</v>
       </c>
-      <c r="Q23" t="n">
+      <c r="U23" t="n">
         <v>20</v>
       </c>
-      <c r="R23" t="n">
+      <c r="V23" t="n">
         <v>20</v>
       </c>
-      <c r="S23" t="inlineStr">
+      <c r="W23" t="inlineStr">
         <is>
           <t>handgun</t>
         </is>
       </c>
-      <c r="T23" t="inlineStr">
+      <c r="X23" t="inlineStr">
         <is>
           <t>robbery</t>
         </is>
       </c>
-      <c r="U23" t="inlineStr">
+      <c r="Y23" t="inlineStr">
         <is>
           <t>eric burt</t>
         </is>
       </c>
-      <c r="V23" t="inlineStr">
+      <c r="Z23" t="inlineStr">
         <is>
           <t>eric</t>
         </is>
       </c>
-      <c r="W23" t="inlineStr">
+      <c r="AA23" t="inlineStr">
         <is>
           <t>burt</t>
         </is>
       </c>
-      <c r="X23" t="n">
+      <c r="AB23" t="n">
         <v>1</v>
       </c>
-      <c r="Y23" t="inlineStr">
+      <c r="AC23" t="inlineStr">
         <is>
           <t>100062228</t>
         </is>
       </c>
-      <c r="Z23" t="inlineStr">
+      <c r="AD23" t="inlineStr">
         <is>
           <t>unmatched_entity</t>
         </is>
       </c>
-      <c r="AA23" t="n">
+      <c r="AE23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4559,50 +4812,50 @@
           <t>male</t>
         </is>
       </c>
-      <c r="M24" t="n">
+      <c r="Q24" t="n">
         <v>38.90151736</v>
       </c>
-      <c r="N24" t="n">
+      <c r="R24" t="n">
         <v>-76.99247816</v>
       </c>
-      <c r="O24" t="n">
+      <c r="S24" t="n">
         <v>46</v>
       </c>
-      <c r="P24" t="n">
+      <c r="T24" t="n">
         <v>46</v>
       </c>
-      <c r="Q24" t="n">
+      <c r="U24" t="n">
         <v>46</v>
       </c>
-      <c r="R24" t="n">
+      <c r="V24" t="n">
         <v>46</v>
       </c>
-      <c r="S24" t="inlineStr">
+      <c r="W24" t="inlineStr">
         <is>
           <t>firearm</t>
         </is>
       </c>
-      <c r="X24" t="n">
+      <c r="AB24" t="n">
         <v>1</v>
       </c>
-      <c r="Y24" t="inlineStr">
+      <c r="AC24" t="inlineStr">
         <is>
           <t>100063507</t>
         </is>
       </c>
-      <c r="Z24" t="inlineStr">
+      <c r="AD24" t="inlineStr">
         <is>
           <t>unmatched_entity</t>
         </is>
       </c>
-      <c r="AA24" t="n">
+      <c r="AE24" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>100063749:1:0</t>
+          <t>100063749:0:0</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -4615,6 +4868,177 @@
         <v>2652</v>
       </c>
       <c r="E25" t="inlineStr">
+        <is>
+          <t>[-1.73946451e-02  1.20269388e-01  4.09090072e-02 -5.92865376e-03
+  8.90003964e-02 -4.23796885e-02  1.80511344e-02  1.02020331e-01
+ -5.95600419e-02  2.51424070e-02  7.74392337e-02 -5.21847941e-02
+ -1.24365268e-02  2.73365863e-02 -4.85909767e-02 -5.81527874e-02
+ -2.30892133e-02  6.80843145e-02 -1.51658766e-02  9.27910581e-02
+ -3.87042537e-02  1.23274893e-01  1.61691699e-02 -2.34094858e-02
+  7.97342956e-02  2.37604789e-02 -9.49040579e-04  3.97098111e-03
+ -2.68363440e-03  5.18856384e-03 -2.14006528e-02  5.46837114e-02
+  8.98183435e-02 -4.28607129e-02  1.20796785e-02  7.66765047e-03
+  1.08600907e-01 -7.26977736e-02 -6.41785637e-02  4.57157344e-02
+ -1.98030639e-02  1.06956162e-01 -5.47882356e-02  5.75184114e-02
+ -2.67128646e-02 -9.58387405e-02 -6.35320395e-02 -4.74889725e-02
+  5.28505482e-02  6.73832893e-02 -8.66250470e-02 -1.10525033e-02
+  6.18820190e-02  4.76249531e-02  2.50380449e-02 -1.37779072e-01
+  5.96070625e-02 -2.13710987e-03 -4.80787754e-02  5.26584219e-03
+ -4.19556117e-03  3.79460095e-03 -5.87432981e-02 -4.95797433e-02
+  5.17917126e-02  1.24474186e-02  2.64303740e-02 -8.66847709e-02
+  3.34699191e-02  1.22161517e-02  1.36578128e-01 -5.41357994e-02
+ -6.62208200e-02 -2.06000693e-02 -1.24396920e-01  4.15653177e-03
+  9.11145061e-02 -8.94924253e-02 -5.41359968e-02  3.89513709e-02
+ -6.31792247e-02 -1.40625110e-03 -5.88920824e-02 -7.27928653e-02
+  2.40229163e-03 -1.57308411e-02 -1.56718530e-02  1.02531515e-01
+ -2.64876541e-02  1.19932249e-01  1.95482112e-02  4.64718156e-02
+ -2.20717378e-02 -2.11160388e-02  1.21687911e-01  1.53642856e-02
+ -6.05011918e-03  1.21818334e-02 -7.81528726e-02  4.08560112e-02
+ -1.49129890e-02  2.58519081e-03 -7.17299134e-02  1.32618146e-02
+  2.28322670e-02  3.03276349e-02 -2.42009293e-03 -5.85735179e-02
+ -4.93262298e-02 -1.04022836e-02 -1.12077287e-04 -6.46689311e-02
+  1.96781401e-02  9.48471874e-02  6.74271360e-02  4.37731333e-02
+ -3.56288254e-02  5.05853742e-02 -1.41023686e-02 -2.17544744e-04
+  2.27021594e-02  1.78266801e-02 -5.89445159e-02  4.17809561e-03
+ -1.30031630e-03  7.41133234e-03 -1.28277401e-02  6.67313334e-35
+  8.84135887e-02 -6.55747280e-02 -2.09625177e-02  2.88758781e-02
+  1.57077368e-02 -2.35887431e-02 -8.23260695e-02  4.67600971e-02
+  2.96202283e-02 -1.07837832e-02 -3.43647487e-02 -1.19589262e-01
+  1.78126562e-02 -5.21339178e-02 -2.92876270e-02 -4.84235287e-02
+ -2.67947298e-02 -5.83179237e-04  2.20662635e-02  9.20448732e-03
+ -1.48243662e-02  5.90489730e-02 -6.85914457e-02 -2.51619034e-02
+ -6.14833161e-02  6.67902902e-02  3.39022726e-02  2.03987733e-02
+  1.53988134e-02  1.42607354e-02 -6.21350519e-02 -3.15126479e-02
+  7.76657555e-03  1.54420920e-02  1.30076269e-02  5.96728064e-02
+  1.72439311e-02 -3.61311920e-02 -5.81205413e-02 -3.80135253e-02
+  2.66461074e-02  5.29064685e-02  2.32003920e-04  1.82081200e-02
+  2.99477465e-02 -4.74814922e-02 -1.65520925e-02  3.55391740e-03
+  1.30721807e-01 -6.88212737e-02 -6.59496617e-03  1.12315923e-01
+ -2.27351710e-02 -6.79197833e-02 -4.43867110e-02  1.77948222e-01
+ -3.83347198e-02  7.84845091e-03  1.63802113e-02  8.40041861e-02
+  1.08576499e-01 -6.36859192e-03  9.05851126e-02  4.95878458e-02
+  4.74175019e-03  3.01765520e-02 -4.23728786e-02 -8.42521787e-02
+ -2.01412663e-02 -3.60172093e-02 -4.78435196e-02  1.07239923e-02
+  7.88268000e-02  2.79903729e-02 -8.10227320e-02  7.46618286e-02
+  1.66256689e-02 -2.35697683e-02 -1.00966722e-01 -3.80571000e-02
+  9.70540661e-03 -3.07631865e-02  8.83322116e-03  5.04984483e-02
+  1.56274736e-02  8.04233402e-02  1.69529244e-02  1.04866158e-02
+ -3.84287983e-02  6.21999390e-02  1.23360744e-02 -2.86512058e-02
+ -4.06642742e-02 -9.85511616e-02 -2.12231316e-02 -2.15500422e-33
+ -6.30197069e-03 -3.02128997e-02 -1.82713363e-02 -6.89836964e-02
+ -7.16489106e-02 -1.27761886e-02 -9.24633816e-02  7.44083375e-02
+ -6.69717491e-02 -1.58907995e-02  1.95289068e-02  2.87667825e-03
+  4.10112217e-02 -5.79895824e-02  1.02948779e-02  8.43818635e-02
+ -8.42682924e-03  2.31474601e-02 -6.70582876e-02  1.27680721e-02
+  2.45821103e-02 -4.02573943e-02 -4.62789612e-04  3.08144223e-02
+  2.65434030e-02  5.23768514e-02  4.23541553e-02 -1.44799491e-02
+ -1.05170079e-01 -3.60089131e-02  8.10606256e-02 -2.40327176e-02
+ -1.74998455e-02 -2.85635460e-02  3.17927860e-02  1.34203091e-01
+  1.39763509e-03 -3.54930870e-02 -7.26297200e-02 -2.58297231e-02
+ -3.32579166e-02  3.50529775e-02  5.40944748e-02  4.39435169e-02
+ -6.17301976e-03 -5.72555028e-02  3.76459025e-03  5.25238924e-02
+  2.80940123e-02  2.50835493e-02 -2.08173022e-02  5.32886721e-02
+  6.89580617e-03 -3.32551263e-02  5.28647099e-03 -2.80175935e-02
+ -2.77974270e-03 -5.56432456e-02 -1.03526358e-02 -2.49017142e-02
+  7.25106224e-02  5.10845110e-02 -1.85808837e-02  7.00084912e-03
+  4.17781621e-02 -6.36488125e-02 -8.00742507e-02 -4.17526662e-02
+ -9.27433670e-02  3.74443755e-02  3.90299335e-02  4.32368070e-02
+ -4.02539186e-02  1.25124324e-02 -3.70576419e-02  4.58403230e-02
+ -4.33109254e-02 -1.06202811e-02 -6.72348514e-02 -9.93530848e-04
+  6.50197864e-02  2.76469104e-02 -1.04504384e-01  4.48002554e-02
+  2.58258712e-02 -5.12860678e-02  5.14309704e-02  5.97075820e-02
+  1.93007346e-02 -3.81767638e-02 -1.00427710e-01 -5.59472516e-02
+  7.11096497e-03 -6.60857698e-03 -2.47360077e-02 -2.45944012e-08
+ -2.18991674e-02 -1.79151818e-02 -5.53844832e-02 -3.33535224e-02
+ -1.35455072e-01 -3.27551439e-02 -3.52395652e-03  5.29172160e-02
+  1.20275971e-02  1.35567216e-02 -2.76793819e-02  8.29631742e-03
+ -2.02287175e-02  1.21096037e-02  1.42743308e-02 -3.77754383e-02
+ -3.25200297e-02 -4.98170815e-02 -2.41860021e-02 -4.60814461e-02
+  9.42065474e-03 -1.55321136e-02  6.82002027e-03  9.51023400e-03
+ -1.87999960e-02  7.49956742e-02 -4.22637314e-02  5.39569519e-02
+ -4.91011366e-02  2.10984387e-02 -1.18959527e-02 -1.98737327e-02
+ -5.69958938e-03 -3.89148071e-02  2.97867693e-03  8.10701102e-02
+  8.31151009e-02 -3.72758731e-02  1.90506298e-02 -3.27374376e-02
+  1.66972994e-03 -8.29015449e-02 -3.31463758e-03  2.17947513e-02
+  3.93893896e-03 -1.93740819e-02  2.06368063e-02  5.06550521e-02
+  3.01955827e-02  1.76647387e-03  9.81611386e-02  5.23147471e-02
+ -4.82177688e-03  3.60455550e-02  6.82706162e-02  2.24582963e-02
+ -2.74895392e-02 -1.95692331e-02  4.22953591e-02  5.16274013e-02
+  3.45223807e-02 -7.99983144e-02  1.15072262e-02 -2.13042013e-02]</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="G25" s="3" t="n">
+        <v>28221</v>
+      </c>
+      <c r="H25" t="n">
+        <v>2652</v>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>michael cromite</t>
+        </is>
+      </c>
+      <c r="Q25" t="n">
+        <v>38.90949476</v>
+      </c>
+      <c r="R25" t="n">
+        <v>-77.02431147</v>
+      </c>
+      <c r="S25" t="n">
+        <v>17</v>
+      </c>
+      <c r="T25" t="n">
+        <v>17</v>
+      </c>
+      <c r="U25" t="n">
+        <v>17</v>
+      </c>
+      <c r="V25" t="n">
+        <v>17</v>
+      </c>
+      <c r="W25" t="inlineStr">
+        <is>
+          <t>firearm</t>
+        </is>
+      </c>
+      <c r="AB25" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC25" t="inlineStr">
+        <is>
+          <t>100063749</t>
+        </is>
+      </c>
+      <c r="AD25" t="inlineStr">
+        <is>
+          <t>unmatched_entity</t>
+        </is>
+      </c>
+      <c r="AE25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>100063749:1:0</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>2</v>
+      </c>
+      <c r="C26" t="n">
+        <v>2652</v>
+      </c>
+      <c r="D26" t="n">
+        <v>2652</v>
+      </c>
+      <c r="E26" t="inlineStr">
         <is>
           <t>[-3.55024375e-02  6.33618683e-02 -4.35346290e-02 -5.69835566e-02
   1.74712949e-02 -3.05657070e-02 -4.56338702e-03 -2.49322806e-03
@@ -4714,182 +5138,6 @@
   3.32412198e-02 -5.32113351e-02  4.13077064e-02  6.06514812e-02]</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>day</t>
-        </is>
-      </c>
-      <c r="G25" s="3" t="n">
-        <v>28221</v>
-      </c>
-      <c r="H25" t="n">
-        <v>2652</v>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>haywood williams</t>
-        </is>
-      </c>
-      <c r="M25" t="n">
-        <v>38.90837555</v>
-      </c>
-      <c r="N25" t="n">
-        <v>-77.01143397</v>
-      </c>
-      <c r="O25" t="n">
-        <v>51</v>
-      </c>
-      <c r="P25" t="n">
-        <v>51</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>51</v>
-      </c>
-      <c r="R25" t="n">
-        <v>51</v>
-      </c>
-      <c r="S25" t="inlineStr">
-        <is>
-          <t>blunt object</t>
-        </is>
-      </c>
-      <c r="T25" t="inlineStr">
-        <is>
-          <t>brawl</t>
-        </is>
-      </c>
-      <c r="X25" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y25" t="inlineStr">
-        <is>
-          <t>100063749</t>
-        </is>
-      </c>
-      <c r="Z25" t="inlineStr">
-        <is>
-          <t>unmatched_entity</t>
-        </is>
-      </c>
-      <c r="AA25" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>100063749:0:0</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>2</v>
-      </c>
-      <c r="C26" t="n">
-        <v>2652</v>
-      </c>
-      <c r="D26" t="n">
-        <v>2652</v>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>[-1.73946451e-02  1.20269388e-01  4.09090072e-02 -5.92865376e-03
-  8.90003964e-02 -4.23796885e-02  1.80511344e-02  1.02020331e-01
- -5.95600419e-02  2.51424070e-02  7.74392337e-02 -5.21847941e-02
- -1.24365268e-02  2.73365863e-02 -4.85909767e-02 -5.81527874e-02
- -2.30892133e-02  6.80843145e-02 -1.51658766e-02  9.27910581e-02
- -3.87042537e-02  1.23274893e-01  1.61691699e-02 -2.34094858e-02
-  7.97342956e-02  2.37604789e-02 -9.49040579e-04  3.97098111e-03
- -2.68363440e-03  5.18856384e-03 -2.14006528e-02  5.46837114e-02
-  8.98183435e-02 -4.28607129e-02  1.20796785e-02  7.66765047e-03
-  1.08600907e-01 -7.26977736e-02 -6.41785637e-02  4.57157344e-02
- -1.98030639e-02  1.06956162e-01 -5.47882356e-02  5.75184114e-02
- -2.67128646e-02 -9.58387405e-02 -6.35320395e-02 -4.74889725e-02
-  5.28505482e-02  6.73832893e-02 -8.66250470e-02 -1.10525033e-02
-  6.18820190e-02  4.76249531e-02  2.50380449e-02 -1.37779072e-01
-  5.96070625e-02 -2.13710987e-03 -4.80787754e-02  5.26584219e-03
- -4.19556117e-03  3.79460095e-03 -5.87432981e-02 -4.95797433e-02
-  5.17917126e-02  1.24474186e-02  2.64303740e-02 -8.66847709e-02
-  3.34699191e-02  1.22161517e-02  1.36578128e-01 -5.41357994e-02
- -6.62208200e-02 -2.06000693e-02 -1.24396920e-01  4.15653177e-03
-  9.11145061e-02 -8.94924253e-02 -5.41359968e-02  3.89513709e-02
- -6.31792247e-02 -1.40625110e-03 -5.88920824e-02 -7.27928653e-02
-  2.40229163e-03 -1.57308411e-02 -1.56718530e-02  1.02531515e-01
- -2.64876541e-02  1.19932249e-01  1.95482112e-02  4.64718156e-02
- -2.20717378e-02 -2.11160388e-02  1.21687911e-01  1.53642856e-02
- -6.05011918e-03  1.21818334e-02 -7.81528726e-02  4.08560112e-02
- -1.49129890e-02  2.58519081e-03 -7.17299134e-02  1.32618146e-02
-  2.28322670e-02  3.03276349e-02 -2.42009293e-03 -5.85735179e-02
- -4.93262298e-02 -1.04022836e-02 -1.12077287e-04 -6.46689311e-02
-  1.96781401e-02  9.48471874e-02  6.74271360e-02  4.37731333e-02
- -3.56288254e-02  5.05853742e-02 -1.41023686e-02 -2.17544744e-04
-  2.27021594e-02  1.78266801e-02 -5.89445159e-02  4.17809561e-03
- -1.30031630e-03  7.41133234e-03 -1.28277401e-02  6.67313334e-35
-  8.84135887e-02 -6.55747280e-02 -2.09625177e-02  2.88758781e-02
-  1.57077368e-02 -2.35887431e-02 -8.23260695e-02  4.67600971e-02
-  2.96202283e-02 -1.07837832e-02 -3.43647487e-02 -1.19589262e-01
-  1.78126562e-02 -5.21339178e-02 -2.92876270e-02 -4.84235287e-02
- -2.67947298e-02 -5.83179237e-04  2.20662635e-02  9.20448732e-03
- -1.48243662e-02  5.90489730e-02 -6.85914457e-02 -2.51619034e-02
- -6.14833161e-02  6.67902902e-02  3.39022726e-02  2.03987733e-02
-  1.53988134e-02  1.42607354e-02 -6.21350519e-02 -3.15126479e-02
-  7.76657555e-03  1.54420920e-02  1.30076269e-02  5.96728064e-02
-  1.72439311e-02 -3.61311920e-02 -5.81205413e-02 -3.80135253e-02
-  2.66461074e-02  5.29064685e-02  2.32003920e-04  1.82081200e-02
-  2.99477465e-02 -4.74814922e-02 -1.65520925e-02  3.55391740e-03
-  1.30721807e-01 -6.88212737e-02 -6.59496617e-03  1.12315923e-01
- -2.27351710e-02 -6.79197833e-02 -4.43867110e-02  1.77948222e-01
- -3.83347198e-02  7.84845091e-03  1.63802113e-02  8.40041861e-02
-  1.08576499e-01 -6.36859192e-03  9.05851126e-02  4.95878458e-02
-  4.74175019e-03  3.01765520e-02 -4.23728786e-02 -8.42521787e-02
- -2.01412663e-02 -3.60172093e-02 -4.78435196e-02  1.07239923e-02
-  7.88268000e-02  2.79903729e-02 -8.10227320e-02  7.46618286e-02
-  1.66256689e-02 -2.35697683e-02 -1.00966722e-01 -3.80571000e-02
-  9.70540661e-03 -3.07631865e-02  8.83322116e-03  5.04984483e-02
-  1.56274736e-02  8.04233402e-02  1.69529244e-02  1.04866158e-02
- -3.84287983e-02  6.21999390e-02  1.23360744e-02 -2.86512058e-02
- -4.06642742e-02 -9.85511616e-02 -2.12231316e-02 -2.15500422e-33
- -6.30197069e-03 -3.02128997e-02 -1.82713363e-02 -6.89836964e-02
- -7.16489106e-02 -1.27761886e-02 -9.24633816e-02  7.44083375e-02
- -6.69717491e-02 -1.58907995e-02  1.95289068e-02  2.87667825e-03
-  4.10112217e-02 -5.79895824e-02  1.02948779e-02  8.43818635e-02
- -8.42682924e-03  2.31474601e-02 -6.70582876e-02  1.27680721e-02
-  2.45821103e-02 -4.02573943e-02 -4.62789612e-04  3.08144223e-02
-  2.65434030e-02  5.23768514e-02  4.23541553e-02 -1.44799491e-02
- -1.05170079e-01 -3.60089131e-02  8.10606256e-02 -2.40327176e-02
- -1.74998455e-02 -2.85635460e-02  3.17927860e-02  1.34203091e-01
-  1.39763509e-03 -3.54930870e-02 -7.26297200e-02 -2.58297231e-02
- -3.32579166e-02  3.50529775e-02  5.40944748e-02  4.39435169e-02
- -6.17301976e-03 -5.72555028e-02  3.76459025e-03  5.25238924e-02
-  2.80940123e-02  2.50835493e-02 -2.08173022e-02  5.32886721e-02
-  6.89580617e-03 -3.32551263e-02  5.28647099e-03 -2.80175935e-02
- -2.77974270e-03 -5.56432456e-02 -1.03526358e-02 -2.49017142e-02
-  7.25106224e-02  5.10845110e-02 -1.85808837e-02  7.00084912e-03
-  4.17781621e-02 -6.36488125e-02 -8.00742507e-02 -4.17526662e-02
- -9.27433670e-02  3.74443755e-02  3.90299335e-02  4.32368070e-02
- -4.02539186e-02  1.25124324e-02 -3.70576419e-02  4.58403230e-02
- -4.33109254e-02 -1.06202811e-02 -6.72348514e-02 -9.93530848e-04
-  6.50197864e-02  2.76469104e-02 -1.04504384e-01  4.48002554e-02
-  2.58258712e-02 -5.12860678e-02  5.14309704e-02  5.97075820e-02
-  1.93007346e-02 -3.81767638e-02 -1.00427710e-01 -5.59472516e-02
-  7.11096497e-03 -6.60857698e-03 -2.47360077e-02 -2.45944012e-08
- -2.18991674e-02 -1.79151818e-02 -5.53844832e-02 -3.33535224e-02
- -1.35455072e-01 -3.27551439e-02 -3.52395652e-03  5.29172160e-02
-  1.20275971e-02  1.35567216e-02 -2.76793819e-02  8.29631742e-03
- -2.02287175e-02  1.21096037e-02  1.42743308e-02 -3.77754383e-02
- -3.25200297e-02 -4.98170815e-02 -2.41860021e-02 -4.60814461e-02
-  9.42065474e-03 -1.55321136e-02  6.82002027e-03  9.51023400e-03
- -1.87999960e-02  7.49956742e-02 -4.22637314e-02  5.39569519e-02
- -4.91011366e-02  2.10984387e-02 -1.18959527e-02 -1.98737327e-02
- -5.69958938e-03 -3.89148071e-02  2.97867693e-03  8.10701102e-02
-  8.31151009e-02 -3.72758731e-02  1.90506298e-02 -3.27374376e-02
-  1.66972994e-03 -8.29015449e-02 -3.31463758e-03  2.17947513e-02
-  3.93893896e-03 -1.93740819e-02  2.06368063e-02  5.06550521e-02
-  3.01955827e-02  1.76647387e-03  9.81611386e-02  5.23147471e-02
- -4.82177688e-03  3.60455550e-02  6.82706162e-02  2.24582963e-02
- -2.74895392e-02 -1.95692331e-02  4.22953591e-02  5.16274013e-02
-  3.45223807e-02 -7.99983144e-02  1.15072262e-02 -2.13042013e-02]</t>
-        </is>
-      </c>
       <c r="F26" t="inlineStr">
         <is>
           <t>day</t>
@@ -4903,46 +5151,51 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>michael cromite</t>
-        </is>
-      </c>
-      <c r="M26" t="n">
-        <v>38.90949476</v>
-      </c>
-      <c r="N26" t="n">
-        <v>-77.02431147</v>
-      </c>
-      <c r="O26" t="n">
-        <v>17</v>
-      </c>
-      <c r="P26" t="n">
-        <v>17</v>
+          <t>haywood williams</t>
+        </is>
       </c>
       <c r="Q26" t="n">
-        <v>17</v>
+        <v>38.90837555</v>
       </c>
       <c r="R26" t="n">
-        <v>17</v>
-      </c>
-      <c r="S26" t="inlineStr">
-        <is>
-          <t>firearm</t>
-        </is>
-      </c>
-      <c r="X26" t="n">
+        <v>-77.01143397</v>
+      </c>
+      <c r="S26" t="n">
+        <v>51</v>
+      </c>
+      <c r="T26" t="n">
+        <v>51</v>
+      </c>
+      <c r="U26" t="n">
+        <v>51</v>
+      </c>
+      <c r="V26" t="n">
+        <v>51</v>
+      </c>
+      <c r="W26" t="inlineStr">
+        <is>
+          <t>blunt object</t>
+        </is>
+      </c>
+      <c r="X26" t="inlineStr">
+        <is>
+          <t>brawl</t>
+        </is>
+      </c>
+      <c r="AB26" t="n">
         <v>1</v>
       </c>
-      <c r="Y26" t="inlineStr">
+      <c r="AC26" t="inlineStr">
         <is>
           <t>100063749</t>
         </is>
       </c>
-      <c r="Z26" t="inlineStr">
+      <c r="AD26" t="inlineStr">
         <is>
           <t>unmatched_entity</t>
         </is>
       </c>
-      <c r="AA26" t="n">
+      <c r="AE26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5083,62 +5336,70 @@
         </is>
       </c>
       <c r="M27" t="n">
+        <v>59</v>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="Q27" t="n">
         <v>38.84702574048326</v>
       </c>
-      <c r="N27" t="n">
+      <c r="R27" t="n">
         <v>-77.02346997106631</v>
       </c>
-      <c r="O27" t="n">
+      <c r="S27" t="n">
         <v>27</v>
       </c>
-      <c r="P27" t="n">
+      <c r="T27" t="n">
         <v>26.66666666666667</v>
       </c>
-      <c r="Q27" t="n">
+      <c r="U27" t="n">
         <v>26</v>
       </c>
-      <c r="R27" t="n">
+      <c r="V27" t="n">
         <v>27</v>
       </c>
-      <c r="S27" t="inlineStr">
+      <c r="W27" t="inlineStr">
         <is>
           <t>handgun</t>
         </is>
       </c>
-      <c r="T27" t="inlineStr">
+      <c r="X27" t="inlineStr">
         <is>
           <t>other</t>
         </is>
       </c>
-      <c r="U27" t="inlineStr">
+      <c r="Y27" t="inlineStr">
         <is>
           <t>avon alexander</t>
         </is>
       </c>
-      <c r="V27" t="inlineStr">
+      <c r="Z27" t="inlineStr">
         <is>
           <t>avon</t>
         </is>
       </c>
-      <c r="W27" t="inlineStr">
+      <c r="AA27" t="inlineStr">
         <is>
           <t>alexander</t>
         </is>
       </c>
-      <c r="X27" t="n">
+      <c r="AB27" t="n">
         <v>7</v>
       </c>
-      <c r="Y27" t="inlineStr">
-        <is>
-          <t>100067595,100026075,100009032,100066856,100009259,100018689,100018007</t>
-        </is>
-      </c>
-      <c r="Z27" t="inlineStr">
+      <c r="AC27" t="inlineStr">
+        <is>
+          <t>100009032,100067595,100066856,100009259,100018689,100018007,100026075</t>
+        </is>
+      </c>
+      <c r="AD27" t="inlineStr">
         <is>
           <t>unmatched_entity</t>
         </is>
       </c>
-      <c r="AA27" t="n">
+      <c r="AE27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5279,62 +5540,70 @@
         </is>
       </c>
       <c r="M28" t="n">
+        <v>48</v>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="Q28" t="n">
         <v>38.8976445</v>
       </c>
-      <c r="N28" t="n">
+      <c r="R28" t="n">
         <v>-77.02493754</v>
       </c>
-      <c r="O28" t="n">
+      <c r="S28" t="n">
         <v>20</v>
       </c>
-      <c r="P28" t="n">
+      <c r="T28" t="n">
         <v>20</v>
       </c>
-      <c r="Q28" t="n">
+      <c r="U28" t="n">
         <v>20</v>
       </c>
-      <c r="R28" t="n">
+      <c r="V28" t="n">
         <v>20</v>
       </c>
-      <c r="S28" t="inlineStr">
+      <c r="W28" t="inlineStr">
         <is>
           <t>firearm</t>
         </is>
       </c>
-      <c r="T28" t="inlineStr">
+      <c r="X28" t="inlineStr">
         <is>
           <t>robbery</t>
         </is>
       </c>
-      <c r="U28" t="inlineStr">
+      <c r="Y28" t="inlineStr">
         <is>
           <t>ruby poritzky</t>
         </is>
       </c>
-      <c r="V28" t="inlineStr">
+      <c r="Z28" t="inlineStr">
         <is>
           <t>ruby</t>
         </is>
       </c>
-      <c r="W28" t="inlineStr">
+      <c r="AA28" t="inlineStr">
         <is>
           <t>poritzky</t>
         </is>
       </c>
-      <c r="X28" t="n">
+      <c r="AB28" t="n">
         <v>2</v>
       </c>
-      <c r="Y28" t="inlineStr">
+      <c r="AC28" t="inlineStr">
         <is>
           <t>100067452,100067285</t>
         </is>
       </c>
-      <c r="Z28" t="inlineStr">
+      <c r="AD28" t="inlineStr">
         <is>
           <t>newly_matched</t>
         </is>
       </c>
-      <c r="AA28" t="n">
+      <c r="AE28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5474,42 +5743,42 @@
           <t>male</t>
         </is>
       </c>
-      <c r="O29" t="n">
+      <c r="S29" t="n">
         <v>16</v>
       </c>
-      <c r="P29" t="n">
+      <c r="T29" t="n">
         <v>16</v>
       </c>
-      <c r="Q29" t="n">
+      <c r="U29" t="n">
         <v>16</v>
       </c>
-      <c r="R29" t="n">
+      <c r="V29" t="n">
         <v>16</v>
       </c>
-      <c r="S29" t="inlineStr">
+      <c r="W29" t="inlineStr">
         <is>
           <t>handgun</t>
         </is>
       </c>
-      <c r="T29" t="inlineStr">
+      <c r="X29" t="inlineStr">
         <is>
           <t>argument</t>
         </is>
       </c>
-      <c r="X29" t="n">
+      <c r="AB29" t="n">
         <v>1</v>
       </c>
-      <c r="Y29" t="inlineStr">
+      <c r="AC29" t="inlineStr">
         <is>
           <t>100067593</t>
         </is>
       </c>
-      <c r="Z29" t="inlineStr">
+      <c r="AD29" t="inlineStr">
         <is>
           <t>unmatched_entity</t>
         </is>
       </c>
-      <c r="AA29" t="n">
+      <c r="AE29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5650,62 +5919,70 @@
         </is>
       </c>
       <c r="M30" t="n">
+        <v>24</v>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="Q30" t="n">
         <v>38.8872061876165</v>
       </c>
-      <c r="N30" t="n">
+      <c r="R30" t="n">
         <v>-76.9799676569391</v>
       </c>
-      <c r="O30" t="n">
+      <c r="S30" t="n">
         <v>40</v>
       </c>
-      <c r="P30" t="n">
+      <c r="T30" t="n">
         <v>40</v>
       </c>
-      <c r="Q30" t="n">
+      <c r="U30" t="n">
         <v>40</v>
       </c>
-      <c r="R30" t="n">
+      <c r="V30" t="n">
         <v>40</v>
       </c>
-      <c r="S30" t="inlineStr">
+      <c r="W30" t="inlineStr">
         <is>
           <t>shotgun</t>
         </is>
       </c>
-      <c r="T30" t="inlineStr">
+      <c r="X30" t="inlineStr">
         <is>
           <t>argument</t>
         </is>
       </c>
-      <c r="U30" t="inlineStr">
+      <c r="Y30" t="inlineStr">
         <is>
           <t>william smith</t>
         </is>
       </c>
-      <c r="V30" t="inlineStr">
+      <c r="Z30" t="inlineStr">
         <is>
           <t>william</t>
         </is>
       </c>
-      <c r="W30" t="inlineStr">
+      <c r="AA30" t="inlineStr">
         <is>
           <t>smith</t>
         </is>
       </c>
-      <c r="X30" t="n">
+      <c r="AB30" t="n">
         <v>2</v>
       </c>
-      <c r="Y30" t="inlineStr">
+      <c r="AC30" t="inlineStr">
         <is>
           <t>100000119,100068117</t>
         </is>
       </c>
-      <c r="Z30" t="inlineStr">
+      <c r="AD30" t="inlineStr">
         <is>
           <t>unmatched_entity</t>
         </is>
       </c>
-      <c r="AA30" t="n">
+      <c r="AE30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5845,48 +6122,48 @@
           <t>male</t>
         </is>
       </c>
-      <c r="M31" t="n">
+      <c r="Q31" t="n">
         <v>38.9003934655188</v>
       </c>
-      <c r="N31" t="n">
+      <c r="R31" t="n">
         <v>-76.99525762115221</v>
       </c>
-      <c r="O31" t="n">
+      <c r="S31" t="n">
         <v>22</v>
       </c>
-      <c r="P31" t="n">
+      <c r="T31" t="n">
         <v>22</v>
       </c>
-      <c r="Q31" t="n">
+      <c r="U31" t="n">
         <v>22</v>
       </c>
-      <c r="R31" t="n">
+      <c r="V31" t="n">
         <v>22</v>
       </c>
-      <c r="S31" t="inlineStr">
+      <c r="W31" t="inlineStr">
         <is>
           <t>firearm</t>
         </is>
       </c>
-      <c r="T31" t="inlineStr">
+      <c r="X31" t="inlineStr">
         <is>
           <t>robbery</t>
         </is>
       </c>
-      <c r="X31" t="n">
+      <c r="AB31" t="n">
         <v>1</v>
       </c>
-      <c r="Y31" t="inlineStr">
+      <c r="AC31" t="inlineStr">
         <is>
           <t>100068635</t>
         </is>
       </c>
-      <c r="Z31" t="inlineStr">
+      <c r="AD31" t="inlineStr">
         <is>
           <t>unmatched_entity</t>
         </is>
       </c>
-      <c r="AA31" t="n">
+      <c r="AE31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6026,37 +6303,37 @@
           <t>male</t>
         </is>
       </c>
-      <c r="O32" t="n">
+      <c r="S32" t="n">
         <v>59</v>
       </c>
-      <c r="P32" t="n">
+      <c r="T32" t="n">
         <v>59</v>
       </c>
-      <c r="Q32" t="n">
+      <c r="U32" t="n">
         <v>59</v>
       </c>
-      <c r="R32" t="n">
+      <c r="V32" t="n">
         <v>59</v>
       </c>
-      <c r="T32" t="inlineStr">
+      <c r="X32" t="inlineStr">
         <is>
           <t>institutional killing</t>
         </is>
       </c>
-      <c r="X32" t="n">
+      <c r="AB32" t="n">
         <v>1</v>
       </c>
-      <c r="Y32" t="inlineStr">
+      <c r="AC32" t="inlineStr">
         <is>
           <t>100000830</t>
         </is>
       </c>
-      <c r="Z32" t="inlineStr">
+      <c r="AD32" t="inlineStr">
         <is>
           <t>unmatched_entity</t>
         </is>
       </c>
-      <c r="AA32" t="n">
+      <c r="AE32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6206,55 +6483,55 @@
           <t>Non-Hispanic</t>
         </is>
       </c>
-      <c r="M33" t="n">
+      <c r="Q33" t="n">
         <v>38.9138606375</v>
       </c>
-      <c r="N33" t="n">
+      <c r="R33" t="n">
         <v>-77.0630218525</v>
       </c>
-      <c r="O33" t="n">
+      <c r="S33" t="n">
         <v>36</v>
       </c>
-      <c r="P33" t="n">
+      <c r="T33" t="n">
         <v>36</v>
       </c>
-      <c r="Q33" t="n">
+      <c r="U33" t="n">
         <v>36</v>
       </c>
-      <c r="R33" t="n">
+      <c r="V33" t="n">
         <v>36</v>
       </c>
-      <c r="S33" t="inlineStr">
+      <c r="W33" t="inlineStr">
         <is>
           <t>firearm</t>
         </is>
       </c>
-      <c r="T33" t="inlineStr">
+      <c r="X33" t="inlineStr">
         <is>
           <t>gang killing</t>
         </is>
       </c>
-      <c r="X33" t="n">
+      <c r="AB33" t="n">
         <v>7</v>
       </c>
-      <c r="Y33" t="inlineStr">
-        <is>
-          <t>100002194,100018683,100001184,100001384,100041397,100004364,100009541</t>
-        </is>
-      </c>
-      <c r="Z33" t="inlineStr">
+      <c r="AC33" t="inlineStr">
+        <is>
+          <t>100009541,100002194,100018683,100001384,100041397,100004364,100001184</t>
+        </is>
+      </c>
+      <c r="AD33" t="inlineStr">
         <is>
           <t>unmatched_entity</t>
         </is>
       </c>
-      <c r="AA33" t="n">
+      <c r="AE33" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>100004063:0:1</t>
+          <t>100004063:0:0</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -6379,78 +6656,86 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>rebecca lawerence booker</t>
+          <t>harry lawerence</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="M34" t="n">
+        <v>42</v>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="Q34" t="n">
         <v>38.89461601</v>
       </c>
-      <c r="N34" t="n">
+      <c r="R34" t="n">
         <v>-76.97793278</v>
       </c>
-      <c r="O34" t="n">
-        <v>65</v>
-      </c>
-      <c r="P34" t="n">
-        <v>65</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>65</v>
-      </c>
-      <c r="R34" t="n">
-        <v>65</v>
-      </c>
-      <c r="S34" t="inlineStr">
+      <c r="S34" t="n">
+        <v>75</v>
+      </c>
+      <c r="T34" t="n">
+        <v>75</v>
+      </c>
+      <c r="U34" t="n">
+        <v>75</v>
+      </c>
+      <c r="V34" t="n">
+        <v>75</v>
+      </c>
+      <c r="W34" t="inlineStr">
         <is>
           <t>fire</t>
         </is>
       </c>
-      <c r="T34" t="inlineStr">
+      <c r="X34" t="inlineStr">
         <is>
           <t>arson</t>
         </is>
       </c>
-      <c r="U34" t="inlineStr">
+      <c r="Y34" t="inlineStr">
         <is>
           <t>garfield wells</t>
         </is>
       </c>
-      <c r="V34" t="inlineStr">
+      <c r="Z34" t="inlineStr">
         <is>
           <t>garfield</t>
         </is>
       </c>
-      <c r="W34" t="inlineStr">
+      <c r="AA34" t="inlineStr">
         <is>
           <t>wells</t>
         </is>
       </c>
-      <c r="X34" t="n">
+      <c r="AB34" t="n">
         <v>2</v>
       </c>
-      <c r="Y34" t="inlineStr">
+      <c r="AC34" t="inlineStr">
         <is>
           <t>100004063,100001889</t>
         </is>
       </c>
-      <c r="Z34" t="inlineStr">
+      <c r="AD34" t="inlineStr">
         <is>
           <t>newly_matched</t>
         </is>
       </c>
-      <c r="AA34" t="n">
+      <c r="AE34" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>100004063:0:0</t>
+          <t>100004063:0:2</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -6575,78 +6860,69 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>harry lawerence</t>
-        </is>
-      </c>
-      <c r="J35" t="inlineStr">
+          <t>hilda gamble</t>
+        </is>
+      </c>
+      <c r="M35" t="n">
+        <v>42</v>
+      </c>
+      <c r="N35" t="inlineStr">
         <is>
           <t>male</t>
         </is>
       </c>
-      <c r="M35" t="n">
+      <c r="Q35" t="n">
         <v>38.89461601</v>
       </c>
-      <c r="N35" t="n">
+      <c r="R35" t="n">
         <v>-76.97793278</v>
       </c>
-      <c r="O35" t="n">
-        <v>75</v>
-      </c>
-      <c r="P35" t="n">
-        <v>75</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>75</v>
-      </c>
-      <c r="R35" t="n">
-        <v>75</v>
-      </c>
-      <c r="S35" t="inlineStr">
+      <c r="W35" t="inlineStr">
         <is>
           <t>fire</t>
         </is>
       </c>
-      <c r="T35" t="inlineStr">
+      <c r="X35" t="inlineStr">
         <is>
           <t>arson</t>
         </is>
       </c>
-      <c r="U35" t="inlineStr">
+      <c r="Y35" t="inlineStr">
         <is>
           <t>garfield wells</t>
         </is>
       </c>
-      <c r="V35" t="inlineStr">
+      <c r="Z35" t="inlineStr">
         <is>
           <t>garfield</t>
         </is>
       </c>
-      <c r="W35" t="inlineStr">
+      <c r="AA35" t="inlineStr">
         <is>
           <t>wells</t>
         </is>
       </c>
-      <c r="X35" t="n">
-        <v>2</v>
-      </c>
-      <c r="Y35" t="inlineStr">
-        <is>
-          <t>100004063,100001889</t>
-        </is>
-      </c>
-      <c r="Z35" t="inlineStr">
-        <is>
-          <t>newly_matched</t>
-        </is>
-      </c>
-      <c r="AA35" t="n">
+      <c r="AB35" t="n">
         <v>1</v>
+      </c>
+      <c r="AC35" t="inlineStr">
+        <is>
+          <t>100004063</t>
+        </is>
+      </c>
+      <c r="AD35" t="inlineStr">
+        <is>
+          <t>unmatched_entity</t>
+        </is>
+      </c>
+      <c r="AE35" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>100004063:0:2</t>
+          <t>100004063:0:1</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -6771,55 +7047,80 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>hilda gamble</t>
+          <t>rebecca lawerence booker</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>female</t>
         </is>
       </c>
       <c r="M36" t="n">
+        <v>42</v>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="Q36" t="n">
         <v>38.89461601</v>
       </c>
-      <c r="N36" t="n">
+      <c r="R36" t="n">
         <v>-76.97793278</v>
       </c>
-      <c r="S36" t="inlineStr">
+      <c r="S36" t="n">
+        <v>65</v>
+      </c>
+      <c r="T36" t="n">
+        <v>65</v>
+      </c>
+      <c r="U36" t="n">
+        <v>65</v>
+      </c>
+      <c r="V36" t="n">
+        <v>65</v>
+      </c>
+      <c r="W36" t="inlineStr">
         <is>
           <t>fire</t>
         </is>
       </c>
-      <c r="T36" t="inlineStr">
+      <c r="X36" t="inlineStr">
         <is>
           <t>arson</t>
         </is>
       </c>
-      <c r="U36" t="inlineStr">
+      <c r="Y36" t="inlineStr">
         <is>
           <t>garfield wells</t>
         </is>
       </c>
-      <c r="V36" t="inlineStr">
+      <c r="Z36" t="inlineStr">
         <is>
           <t>garfield</t>
         </is>
       </c>
-      <c r="W36" t="inlineStr">
+      <c r="AA36" t="inlineStr">
         <is>
           <t>wells</t>
         </is>
       </c>
-      <c r="X36" t="n">
+      <c r="AB36" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC36" t="inlineStr">
+        <is>
+          <t>100004063,100001889</t>
+        </is>
+      </c>
+      <c r="AD36" t="inlineStr">
+        <is>
+          <t>newly_matched</t>
+        </is>
+      </c>
+      <c r="AE36" t="n">
         <v>1</v>
-      </c>
-      <c r="Y36" t="inlineStr">
-        <is>
-          <t>100004063</t>
-        </is>
-      </c>
-      <c r="Z36" t="inlineStr">
-        <is>
-          <t>unmatched_entity</t>
-        </is>
-      </c>
-      <c r="AA36" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -6959,62 +7260,70 @@
         </is>
       </c>
       <c r="M37" t="n">
+        <v>29</v>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="Q37" t="n">
         <v>38.92200396</v>
       </c>
-      <c r="N37" t="n">
+      <c r="R37" t="n">
         <v>-77.03236063</v>
       </c>
-      <c r="O37" t="n">
+      <c r="S37" t="n">
         <v>19</v>
       </c>
-      <c r="P37" t="n">
+      <c r="T37" t="n">
         <v>19</v>
       </c>
-      <c r="Q37" t="n">
+      <c r="U37" t="n">
         <v>19</v>
       </c>
-      <c r="R37" t="n">
+      <c r="V37" t="n">
         <v>19</v>
       </c>
-      <c r="S37" t="inlineStr">
+      <c r="W37" t="inlineStr">
         <is>
           <t>firearm</t>
         </is>
       </c>
-      <c r="T37" t="inlineStr">
+      <c r="X37" t="inlineStr">
         <is>
           <t>argument</t>
         </is>
       </c>
-      <c r="U37" t="inlineStr">
+      <c r="Y37" t="inlineStr">
         <is>
           <t>john fuller</t>
         </is>
       </c>
-      <c r="V37" t="inlineStr">
+      <c r="Z37" t="inlineStr">
         <is>
           <t>john</t>
         </is>
       </c>
-      <c r="W37" t="inlineStr">
+      <c r="AA37" t="inlineStr">
         <is>
           <t>fuller</t>
         </is>
       </c>
-      <c r="X37" t="n">
+      <c r="AB37" t="n">
         <v>3</v>
       </c>
-      <c r="Y37" t="inlineStr">
+      <c r="AC37" t="inlineStr">
         <is>
           <t>100004075,100010427,100010689</t>
         </is>
       </c>
-      <c r="Z37" t="inlineStr">
+      <c r="AD37" t="inlineStr">
         <is>
           <t>unmatched_entity</t>
         </is>
       </c>
-      <c r="AA37" t="n">
+      <c r="AE37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7155,62 +7464,70 @@
         </is>
       </c>
       <c r="M38" t="n">
+        <v>30</v>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="Q38" t="n">
         <v>38.90233267</v>
       </c>
-      <c r="N38" t="n">
+      <c r="R38" t="n">
         <v>-76.97483185999999</v>
       </c>
-      <c r="O38" t="n">
+      <c r="S38" t="n">
         <v>41</v>
       </c>
-      <c r="P38" t="n">
+      <c r="T38" t="n">
         <v>41</v>
       </c>
-      <c r="Q38" t="n">
+      <c r="U38" t="n">
         <v>41</v>
       </c>
-      <c r="R38" t="n">
+      <c r="V38" t="n">
         <v>41</v>
       </c>
-      <c r="S38" t="inlineStr">
+      <c r="W38" t="inlineStr">
         <is>
           <t>handgun</t>
         </is>
       </c>
-      <c r="T38" t="inlineStr">
+      <c r="X38" t="inlineStr">
         <is>
           <t>felon killed by police</t>
         </is>
       </c>
-      <c r="U38" t="inlineStr">
+      <c r="Y38" t="inlineStr">
         <is>
           <t>timothy wilson</t>
         </is>
       </c>
-      <c r="V38" t="inlineStr">
+      <c r="Z38" t="inlineStr">
         <is>
           <t>timothy</t>
         </is>
       </c>
-      <c r="W38" t="inlineStr">
+      <c r="AA38" t="inlineStr">
         <is>
           <t>wilson</t>
         </is>
       </c>
-      <c r="X38" t="n">
+      <c r="AB38" t="n">
         <v>1</v>
       </c>
-      <c r="Y38" t="inlineStr">
+      <c r="AC38" t="inlineStr">
         <is>
           <t>100004722</t>
         </is>
       </c>
-      <c r="Z38" t="inlineStr">
+      <c r="AD38" t="inlineStr">
         <is>
           <t>unmatched_entity</t>
         </is>
       </c>
-      <c r="AA38" t="n">
+      <c r="AE38" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7347,30 +7664,30 @@
           <t>male</t>
         </is>
       </c>
-      <c r="S39" t="inlineStr">
+      <c r="W39" t="inlineStr">
         <is>
           <t>firearm</t>
         </is>
       </c>
-      <c r="T39" t="inlineStr">
+      <c r="X39" t="inlineStr">
         <is>
           <t>argument</t>
         </is>
       </c>
-      <c r="X39" t="n">
+      <c r="AB39" t="n">
         <v>2</v>
       </c>
-      <c r="Y39" t="inlineStr">
-        <is>
-          <t>100009259,100009032</t>
-        </is>
-      </c>
-      <c r="Z39" t="inlineStr">
+      <c r="AC39" t="inlineStr">
+        <is>
+          <t>100009032,100009259</t>
+        </is>
+      </c>
+      <c r="AD39" t="inlineStr">
         <is>
           <t>unmatched_entity</t>
         </is>
       </c>
-      <c r="AA39" t="n">
+      <c r="AE39" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7510,57 +7827,65 @@
           <t>female</t>
         </is>
       </c>
-      <c r="O40" t="n">
+      <c r="M40" t="n">
+        <v>55</v>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="S40" t="n">
         <v>62</v>
       </c>
-      <c r="P40" t="n">
+      <c r="T40" t="n">
         <v>62</v>
       </c>
-      <c r="Q40" t="n">
+      <c r="U40" t="n">
         <v>62</v>
       </c>
-      <c r="R40" t="n">
+      <c r="V40" t="n">
         <v>62</v>
       </c>
-      <c r="S40" t="inlineStr">
+      <c r="W40" t="inlineStr">
         <is>
           <t>blunt object</t>
         </is>
       </c>
-      <c r="T40" t="inlineStr">
+      <c r="X40" t="inlineStr">
         <is>
           <t>argument</t>
         </is>
       </c>
-      <c r="U40" t="inlineStr">
+      <c r="Y40" t="inlineStr">
         <is>
           <t>william brown</t>
         </is>
       </c>
-      <c r="V40" t="inlineStr">
+      <c r="Z40" t="inlineStr">
         <is>
           <t>william</t>
         </is>
       </c>
-      <c r="W40" t="inlineStr">
+      <c r="AA40" t="inlineStr">
         <is>
           <t>brown</t>
         </is>
       </c>
-      <c r="X40" t="n">
+      <c r="AB40" t="n">
         <v>1</v>
       </c>
-      <c r="Y40" t="inlineStr">
+      <c r="AC40" t="inlineStr">
         <is>
           <t>100009900</t>
         </is>
       </c>
-      <c r="Z40" t="inlineStr">
+      <c r="AD40" t="inlineStr">
         <is>
           <t>unmatched_entity</t>
         </is>
       </c>
-      <c r="AA40" t="n">
+      <c r="AE40" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7700,48 +8025,48 @@
           <t>female</t>
         </is>
       </c>
-      <c r="M41" t="n">
+      <c r="Q41" t="n">
         <v>38.9649026473119</v>
       </c>
-      <c r="N41" t="n">
+      <c r="R41" t="n">
         <v>-77.0755730126404</v>
       </c>
-      <c r="O41" t="n">
+      <c r="S41" t="n">
         <v>27</v>
       </c>
-      <c r="P41" t="n">
+      <c r="T41" t="n">
         <v>27</v>
       </c>
-      <c r="Q41" t="n">
+      <c r="U41" t="n">
         <v>27</v>
       </c>
-      <c r="R41" t="n">
+      <c r="V41" t="n">
         <v>27</v>
       </c>
-      <c r="S41" t="inlineStr">
+      <c r="W41" t="inlineStr">
         <is>
           <t>blunt object</t>
         </is>
       </c>
-      <c r="T41" t="inlineStr">
+      <c r="X41" t="inlineStr">
         <is>
           <t>argument</t>
         </is>
       </c>
-      <c r="X41" t="n">
+      <c r="AB41" t="n">
         <v>1</v>
       </c>
-      <c r="Y41" t="inlineStr">
+      <c r="AC41" t="inlineStr">
         <is>
           <t>100009953</t>
         </is>
       </c>
-      <c r="Z41" t="inlineStr">
+      <c r="AD41" t="inlineStr">
         <is>
           <t>unmatched_entity</t>
         </is>
       </c>
-      <c r="AA41" t="n">
+      <c r="AE41" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7882,62 +8207,70 @@
         </is>
       </c>
       <c r="M42" t="n">
+        <v>30</v>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="Q42" t="n">
         <v>38.96863099</v>
       </c>
-      <c r="N42" t="n">
+      <c r="R42" t="n">
         <v>-77.03372163</v>
       </c>
-      <c r="O42" t="n">
+      <c r="S42" t="n">
         <v>52</v>
       </c>
-      <c r="P42" t="n">
+      <c r="T42" t="n">
         <v>52</v>
       </c>
-      <c r="Q42" t="n">
+      <c r="U42" t="n">
         <v>52</v>
       </c>
-      <c r="R42" t="n">
+      <c r="V42" t="n">
         <v>52</v>
       </c>
-      <c r="S42" t="inlineStr">
+      <c r="W42" t="inlineStr">
         <is>
           <t>strangulation</t>
         </is>
       </c>
-      <c r="T42" t="inlineStr">
+      <c r="X42" t="inlineStr">
         <is>
           <t>brawl</t>
         </is>
       </c>
-      <c r="U42" t="inlineStr">
+      <c r="Y42" t="inlineStr">
         <is>
           <t>charles bowen</t>
         </is>
       </c>
-      <c r="V42" t="inlineStr">
+      <c r="Z42" t="inlineStr">
         <is>
           <t>charles</t>
         </is>
       </c>
-      <c r="W42" t="inlineStr">
+      <c r="AA42" t="inlineStr">
         <is>
           <t>bowen</t>
         </is>
       </c>
-      <c r="X42" t="n">
+      <c r="AB42" t="n">
         <v>1</v>
       </c>
-      <c r="Y42" t="inlineStr">
+      <c r="AC42" t="inlineStr">
         <is>
           <t>100010173</t>
         </is>
       </c>
-      <c r="Z42" t="inlineStr">
+      <c r="AD42" t="inlineStr">
         <is>
           <t>unmatched_entity</t>
         </is>
       </c>
-      <c r="AA42" t="n">
+      <c r="AE42" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8078,57 +8411,65 @@
         </is>
       </c>
       <c r="M43" t="n">
+        <v>33</v>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="Q43" t="n">
         <v>38.93741412</v>
       </c>
-      <c r="N43" t="n">
+      <c r="R43" t="n">
         <v>-76.97730326</v>
       </c>
-      <c r="O43" t="n">
+      <c r="S43" t="n">
         <v>19</v>
       </c>
-      <c r="P43" t="n">
+      <c r="T43" t="n">
         <v>19</v>
       </c>
-      <c r="Q43" t="n">
+      <c r="U43" t="n">
         <v>19</v>
       </c>
-      <c r="R43" t="n">
+      <c r="V43" t="n">
         <v>19</v>
       </c>
-      <c r="S43" t="inlineStr">
+      <c r="W43" t="inlineStr">
         <is>
           <t>firearm</t>
         </is>
       </c>
-      <c r="U43" t="inlineStr">
+      <c r="Y43" t="inlineStr">
         <is>
           <t>curtis watson</t>
         </is>
       </c>
-      <c r="V43" t="inlineStr">
+      <c r="Z43" t="inlineStr">
         <is>
           <t>curtis</t>
         </is>
       </c>
-      <c r="W43" t="inlineStr">
+      <c r="AA43" t="inlineStr">
         <is>
           <t>watson</t>
         </is>
       </c>
-      <c r="X43" t="n">
+      <c r="AB43" t="n">
         <v>1</v>
       </c>
-      <c r="Y43" t="inlineStr">
+      <c r="AC43" t="inlineStr">
         <is>
           <t>100019391</t>
         </is>
       </c>
-      <c r="Z43" t="inlineStr">
+      <c r="AD43" t="inlineStr">
         <is>
           <t>unmatched_entity</t>
         </is>
       </c>
-      <c r="AA43" t="n">
+      <c r="AE43" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8269,57 +8610,65 @@
         </is>
       </c>
       <c r="M44" t="n">
+        <v>31</v>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="Q44" t="n">
         <v>38.9064408722501</v>
       </c>
-      <c r="N44" t="n">
+      <c r="R44" t="n">
         <v>-77.02346859790865</v>
       </c>
-      <c r="O44" t="n">
+      <c r="S44" t="n">
         <v>24</v>
       </c>
-      <c r="P44" t="n">
+      <c r="T44" t="n">
         <v>24.33333333333333</v>
       </c>
-      <c r="Q44" t="n">
+      <c r="U44" t="n">
         <v>24</v>
       </c>
-      <c r="R44" t="n">
+      <c r="V44" t="n">
         <v>25</v>
       </c>
-      <c r="S44" t="inlineStr">
+      <c r="W44" t="inlineStr">
         <is>
           <t>firearm</t>
         </is>
       </c>
-      <c r="U44" t="inlineStr">
+      <c r="Y44" t="inlineStr">
         <is>
           <t>leon morton</t>
         </is>
       </c>
-      <c r="V44" t="inlineStr">
+      <c r="Z44" t="inlineStr">
         <is>
           <t>leon</t>
         </is>
       </c>
-      <c r="W44" t="inlineStr">
+      <c r="AA44" t="inlineStr">
         <is>
           <t>morton</t>
         </is>
       </c>
-      <c r="X44" t="n">
+      <c r="AB44" t="n">
         <v>3</v>
       </c>
-      <c r="Y44" t="inlineStr">
+      <c r="AC44" t="inlineStr">
         <is>
           <t>100016342,100010846,100015333</t>
         </is>
       </c>
-      <c r="Z44" t="inlineStr">
+      <c r="AD44" t="inlineStr">
         <is>
           <t>unmatched_entity</t>
         </is>
       </c>
-      <c r="AA44" t="n">
+      <c r="AE44" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8460,62 +8809,70 @@
         </is>
       </c>
       <c r="M45" t="n">
+        <v>34</v>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="Q45" t="n">
         <v>38.90396901</v>
       </c>
-      <c r="N45" t="n">
+      <c r="R45" t="n">
         <v>-76.97311476</v>
       </c>
-      <c r="O45" t="n">
+      <c r="S45" t="n">
         <v>11</v>
       </c>
-      <c r="P45" t="n">
+      <c r="T45" t="n">
         <v>11</v>
       </c>
-      <c r="Q45" t="n">
+      <c r="U45" t="n">
         <v>11</v>
       </c>
-      <c r="R45" t="n">
+      <c r="V45" t="n">
         <v>11</v>
       </c>
-      <c r="S45" t="inlineStr">
+      <c r="W45" t="inlineStr">
         <is>
           <t>blunt object</t>
         </is>
       </c>
-      <c r="T45" t="inlineStr">
+      <c r="X45" t="inlineStr">
         <is>
           <t>other</t>
         </is>
       </c>
-      <c r="U45" t="inlineStr">
+      <c r="Y45" t="inlineStr">
         <is>
           <t>brady crump</t>
         </is>
       </c>
-      <c r="V45" t="inlineStr">
+      <c r="Z45" t="inlineStr">
         <is>
           <t>brady</t>
         </is>
       </c>
-      <c r="W45" t="inlineStr">
+      <c r="AA45" t="inlineStr">
         <is>
           <t>crump</t>
         </is>
       </c>
-      <c r="X45" t="n">
+      <c r="AB45" t="n">
         <v>1</v>
       </c>
-      <c r="Y45" t="inlineStr">
+      <c r="AC45" t="inlineStr">
         <is>
           <t>100014517</t>
         </is>
       </c>
-      <c r="Z45" t="inlineStr">
+      <c r="AD45" t="inlineStr">
         <is>
           <t>unmatched_entity</t>
         </is>
       </c>
-      <c r="AA45" t="n">
+      <c r="AE45" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8656,57 +9013,65 @@
         </is>
       </c>
       <c r="M46" t="n">
+        <v>42</v>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="Q46" t="n">
         <v>38.9029655833041</v>
       </c>
-      <c r="N46" t="n">
+      <c r="R46" t="n">
         <v>-76.97873144433829</v>
       </c>
-      <c r="O46" t="n">
+      <c r="S46" t="n">
         <v>69</v>
       </c>
-      <c r="P46" t="n">
+      <c r="T46" t="n">
         <v>69</v>
       </c>
-      <c r="Q46" t="n">
+      <c r="U46" t="n">
         <v>69</v>
       </c>
-      <c r="R46" t="n">
+      <c r="V46" t="n">
         <v>69</v>
       </c>
-      <c r="S46" t="inlineStr">
+      <c r="W46" t="inlineStr">
         <is>
           <t>knife</t>
         </is>
       </c>
-      <c r="U46" t="inlineStr">
+      <c r="Y46" t="inlineStr">
         <is>
           <t>norman brown</t>
         </is>
       </c>
-      <c r="V46" t="inlineStr">
+      <c r="Z46" t="inlineStr">
         <is>
           <t>norman</t>
         </is>
       </c>
-      <c r="W46" t="inlineStr">
+      <c r="AA46" t="inlineStr">
         <is>
           <t>brown</t>
         </is>
       </c>
-      <c r="X46" t="n">
+      <c r="AB46" t="n">
         <v>1</v>
       </c>
-      <c r="Y46" t="inlineStr">
+      <c r="AC46" t="inlineStr">
         <is>
           <t>100014753</t>
         </is>
       </c>
-      <c r="Z46" t="inlineStr">
+      <c r="AD46" t="inlineStr">
         <is>
           <t>unmatched_entity</t>
         </is>
       </c>
-      <c r="AA46" t="n">
+      <c r="AE46" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8846,48 +9211,48 @@
           <t>male</t>
         </is>
       </c>
-      <c r="M47" t="n">
+      <c r="Q47" t="n">
         <v>38.9072362908274</v>
       </c>
-      <c r="N47" t="n">
+      <c r="R47" t="n">
         <v>-77.0229447208942</v>
       </c>
-      <c r="O47" t="n">
+      <c r="S47" t="n">
         <v>63</v>
       </c>
-      <c r="P47" t="n">
+      <c r="T47" t="n">
         <v>63</v>
       </c>
-      <c r="Q47" t="n">
+      <c r="U47" t="n">
         <v>63</v>
       </c>
-      <c r="R47" t="n">
+      <c r="V47" t="n">
         <v>63</v>
       </c>
-      <c r="S47" t="inlineStr">
+      <c r="W47" t="inlineStr">
         <is>
           <t>firearm</t>
         </is>
       </c>
-      <c r="T47" t="inlineStr">
+      <c r="X47" t="inlineStr">
         <is>
           <t>robbery</t>
         </is>
       </c>
-      <c r="X47" t="n">
+      <c r="AB47" t="n">
         <v>2</v>
       </c>
-      <c r="Y47" t="inlineStr">
-        <is>
-          <t>100016342,100015333</t>
-        </is>
-      </c>
-      <c r="Z47" t="inlineStr">
+      <c r="AC47" t="inlineStr">
+        <is>
+          <t>100015333,100016342</t>
+        </is>
+      </c>
+      <c r="AD47" t="inlineStr">
         <is>
           <t>unmatched_entity</t>
         </is>
       </c>
-      <c r="AA47" t="n">
+      <c r="AE47" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9027,48 +9392,48 @@
           <t>male</t>
         </is>
       </c>
-      <c r="M48" t="n">
+      <c r="Q48" t="n">
         <v>38.96475224</v>
       </c>
-      <c r="N48" t="n">
+      <c r="R48" t="n">
         <v>-77.03025762</v>
       </c>
-      <c r="O48" t="n">
+      <c r="S48" t="n">
         <v>74</v>
       </c>
-      <c r="P48" t="n">
+      <c r="T48" t="n">
         <v>74</v>
       </c>
-      <c r="Q48" t="n">
+      <c r="U48" t="n">
         <v>74</v>
       </c>
-      <c r="R48" t="n">
+      <c r="V48" t="n">
         <v>74</v>
       </c>
-      <c r="S48" t="inlineStr">
+      <c r="W48" t="inlineStr">
         <is>
           <t>handgun</t>
         </is>
       </c>
-      <c r="T48" t="inlineStr">
+      <c r="X48" t="inlineStr">
         <is>
           <t>robbery</t>
         </is>
       </c>
-      <c r="X48" t="n">
+      <c r="AB48" t="n">
         <v>2</v>
       </c>
-      <c r="Y48" t="inlineStr">
+      <c r="AC48" t="inlineStr">
         <is>
           <t>100015636,100020901</t>
         </is>
       </c>
-      <c r="Z48" t="inlineStr">
+      <c r="AD48" t="inlineStr">
         <is>
           <t>unmatched_entity</t>
         </is>
       </c>
-      <c r="AA48" t="n">
+      <c r="AE48" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9209,62 +9574,70 @@
         </is>
       </c>
       <c r="M49" t="n">
+        <v>19</v>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="Q49" t="n">
         <v>38.91455494</v>
       </c>
-      <c r="N49" t="n">
+      <c r="R49" t="n">
         <v>-77.02786252999999</v>
       </c>
-      <c r="O49" t="n">
+      <c r="S49" t="n">
         <v>25</v>
       </c>
-      <c r="P49" t="n">
+      <c r="T49" t="n">
         <v>25</v>
       </c>
-      <c r="Q49" t="n">
+      <c r="U49" t="n">
         <v>25</v>
       </c>
-      <c r="R49" t="n">
+      <c r="V49" t="n">
         <v>25</v>
       </c>
-      <c r="S49" t="inlineStr">
+      <c r="W49" t="inlineStr">
         <is>
           <t>firearm</t>
         </is>
       </c>
-      <c r="T49" t="inlineStr">
+      <c r="X49" t="inlineStr">
         <is>
           <t>robbery</t>
         </is>
       </c>
-      <c r="U49" t="inlineStr">
+      <c r="Y49" t="inlineStr">
         <is>
           <t>ronald garnett</t>
         </is>
       </c>
-      <c r="V49" t="inlineStr">
+      <c r="Z49" t="inlineStr">
         <is>
           <t>ronald</t>
         </is>
       </c>
-      <c r="W49" t="inlineStr">
+      <c r="AA49" t="inlineStr">
         <is>
           <t>garnett</t>
         </is>
       </c>
-      <c r="X49" t="n">
+      <c r="AB49" t="n">
         <v>1</v>
       </c>
-      <c r="Y49" t="inlineStr">
+      <c r="AC49" t="inlineStr">
         <is>
           <t>100015854</t>
         </is>
       </c>
-      <c r="Z49" t="inlineStr">
+      <c r="AD49" t="inlineStr">
         <is>
           <t>unmatched_entity</t>
         </is>
       </c>
-      <c r="AA49" t="n">
+      <c r="AE49" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9405,62 +9778,70 @@
         </is>
       </c>
       <c r="M50" t="n">
+        <v>22</v>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="Q50" t="n">
         <v>38.85570228</v>
       </c>
-      <c r="N50" t="n">
+      <c r="R50" t="n">
         <v>-76.96727898</v>
       </c>
-      <c r="O50" t="n">
+      <c r="S50" t="n">
         <v>25</v>
       </c>
-      <c r="P50" t="n">
+      <c r="T50" t="n">
         <v>25</v>
       </c>
-      <c r="Q50" t="n">
+      <c r="U50" t="n">
         <v>25</v>
       </c>
-      <c r="R50" t="n">
+      <c r="V50" t="n">
         <v>25</v>
       </c>
-      <c r="S50" t="inlineStr">
+      <c r="W50" t="inlineStr">
         <is>
           <t>knife</t>
         </is>
       </c>
-      <c r="T50" t="inlineStr">
+      <c r="X50" t="inlineStr">
         <is>
           <t>argument</t>
         </is>
       </c>
-      <c r="U50" t="inlineStr">
+      <c r="Y50" t="inlineStr">
         <is>
           <t>lottie brake</t>
         </is>
       </c>
-      <c r="V50" t="inlineStr">
+      <c r="Z50" t="inlineStr">
         <is>
           <t>lottie</t>
         </is>
       </c>
-      <c r="W50" t="inlineStr">
+      <c r="AA50" t="inlineStr">
         <is>
           <t>brake</t>
         </is>
       </c>
-      <c r="X50" t="n">
+      <c r="AB50" t="n">
         <v>1</v>
       </c>
-      <c r="Y50" t="inlineStr">
+      <c r="AC50" t="inlineStr">
         <is>
           <t>100015968</t>
         </is>
       </c>
-      <c r="Z50" t="inlineStr">
+      <c r="AD50" t="inlineStr">
         <is>
           <t>unmatched_entity</t>
         </is>
       </c>
-      <c r="AA50" t="n">
+      <c r="AE50" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9600,48 +9981,48 @@
           <t>male</t>
         </is>
       </c>
-      <c r="M51" t="n">
+      <c r="Q51" t="n">
         <v>38.90045731</v>
       </c>
-      <c r="N51" t="n">
+      <c r="R51" t="n">
         <v>-76.99987861</v>
       </c>
-      <c r="O51" t="n">
+      <c r="S51" t="n">
         <v>56</v>
       </c>
-      <c r="P51" t="n">
+      <c r="T51" t="n">
         <v>56</v>
       </c>
-      <c r="Q51" t="n">
+      <c r="U51" t="n">
         <v>56</v>
       </c>
-      <c r="R51" t="n">
+      <c r="V51" t="n">
         <v>56</v>
       </c>
-      <c r="S51" t="inlineStr">
+      <c r="W51" t="inlineStr">
         <is>
           <t>handgun</t>
         </is>
       </c>
-      <c r="T51" t="inlineStr">
+      <c r="X51" t="inlineStr">
         <is>
           <t>robbery</t>
         </is>
       </c>
-      <c r="X51" t="n">
+      <c r="AB51" t="n">
         <v>1</v>
       </c>
-      <c r="Y51" t="inlineStr">
+      <c r="AC51" t="inlineStr">
         <is>
           <t>100016213</t>
         </is>
       </c>
-      <c r="Z51" t="inlineStr">
+      <c r="AD51" t="inlineStr">
         <is>
           <t>unmatched_entity</t>
         </is>
       </c>
-      <c r="AA51" t="n">
+      <c r="AE51" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9782,57 +10163,65 @@
         </is>
       </c>
       <c r="M52" t="n">
+        <v>39</v>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="Q52" t="n">
         <v>38.9056454536728</v>
       </c>
-      <c r="N52" t="n">
+      <c r="R52" t="n">
         <v>-77.02399247492311</v>
       </c>
-      <c r="O52" t="n">
+      <c r="S52" t="n">
         <v>67</v>
       </c>
-      <c r="P52" t="n">
+      <c r="T52" t="n">
         <v>67</v>
       </c>
-      <c r="Q52" t="n">
+      <c r="U52" t="n">
         <v>67</v>
       </c>
-      <c r="R52" t="n">
+      <c r="V52" t="n">
         <v>67</v>
       </c>
-      <c r="S52" t="inlineStr">
+      <c r="W52" t="inlineStr">
         <is>
           <t>firearm</t>
         </is>
       </c>
-      <c r="U52" t="inlineStr">
+      <c r="Y52" t="inlineStr">
         <is>
           <t>mary gillespie</t>
         </is>
       </c>
-      <c r="V52" t="inlineStr">
+      <c r="Z52" t="inlineStr">
         <is>
           <t>mary</t>
         </is>
       </c>
-      <c r="W52" t="inlineStr">
+      <c r="AA52" t="inlineStr">
         <is>
           <t>gillespie</t>
         </is>
       </c>
-      <c r="X52" t="n">
+      <c r="AB52" t="n">
         <v>1</v>
       </c>
-      <c r="Y52" t="inlineStr">
+      <c r="AC52" t="inlineStr">
         <is>
           <t>100016342</t>
         </is>
       </c>
-      <c r="Z52" t="inlineStr">
+      <c r="AD52" t="inlineStr">
         <is>
           <t>unmatched_entity</t>
         </is>
       </c>
-      <c r="AA52" t="n">
+      <c r="AE52" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9973,62 +10362,70 @@
         </is>
       </c>
       <c r="M53" t="n">
+        <v>43</v>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="Q53" t="n">
         <v>38.94423014</v>
       </c>
-      <c r="N53" t="n">
+      <c r="R53" t="n">
         <v>-77.02366465</v>
       </c>
-      <c r="O53" t="n">
+      <c r="S53" t="n">
         <v>65</v>
       </c>
-      <c r="P53" t="n">
+      <c r="T53" t="n">
         <v>65</v>
       </c>
-      <c r="Q53" t="n">
+      <c r="U53" t="n">
         <v>65</v>
       </c>
-      <c r="R53" t="n">
+      <c r="V53" t="n">
         <v>65</v>
       </c>
-      <c r="S53" t="inlineStr">
+      <c r="W53" t="inlineStr">
         <is>
           <t>knife</t>
         </is>
       </c>
-      <c r="T53" t="inlineStr">
+      <c r="X53" t="inlineStr">
         <is>
           <t>argument</t>
         </is>
       </c>
-      <c r="U53" t="inlineStr">
+      <c r="Y53" t="inlineStr">
         <is>
           <t>gleana long</t>
         </is>
       </c>
-      <c r="V53" t="inlineStr">
+      <c r="Z53" t="inlineStr">
         <is>
           <t>gleana</t>
         </is>
       </c>
-      <c r="W53" t="inlineStr">
+      <c r="AA53" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="X53" t="n">
+      <c r="AB53" t="n">
         <v>1</v>
       </c>
-      <c r="Y53" t="inlineStr">
+      <c r="AC53" t="inlineStr">
         <is>
           <t>100016685</t>
         </is>
       </c>
-      <c r="Z53" t="inlineStr">
+      <c r="AD53" t="inlineStr">
         <is>
           <t>unmatched_entity</t>
         </is>
       </c>
-      <c r="AA53" t="n">
+      <c r="AE53" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10168,42 +10565,42 @@
           <t>male</t>
         </is>
       </c>
-      <c r="O54" t="n">
+      <c r="S54" t="n">
         <v>21</v>
       </c>
-      <c r="P54" t="n">
+      <c r="T54" t="n">
         <v>21</v>
       </c>
-      <c r="Q54" t="n">
+      <c r="U54" t="n">
         <v>21</v>
       </c>
-      <c r="R54" t="n">
+      <c r="V54" t="n">
         <v>21</v>
       </c>
-      <c r="S54" t="inlineStr">
+      <c r="W54" t="inlineStr">
         <is>
           <t>handgun</t>
         </is>
       </c>
-      <c r="T54" t="inlineStr">
+      <c r="X54" t="inlineStr">
         <is>
           <t>robbery</t>
         </is>
       </c>
-      <c r="X54" t="n">
+      <c r="AB54" t="n">
         <v>1</v>
       </c>
-      <c r="Y54" t="inlineStr">
+      <c r="AC54" t="inlineStr">
         <is>
           <t>100017144</t>
         </is>
       </c>
-      <c r="Z54" t="inlineStr">
+      <c r="AD54" t="inlineStr">
         <is>
           <t>unmatched_entity</t>
         </is>
       </c>
-      <c r="AA54" t="n">
+      <c r="AE54" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10344,62 +10741,70 @@
         </is>
       </c>
       <c r="M55" t="n">
+        <v>51</v>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="Q55" t="n">
         <v>38.91025973</v>
       </c>
-      <c r="N55" t="n">
+      <c r="R55" t="n">
         <v>-77.02113537</v>
       </c>
-      <c r="O55" t="n">
+      <c r="S55" t="n">
         <v>66</v>
       </c>
-      <c r="P55" t="n">
+      <c r="T55" t="n">
         <v>66</v>
       </c>
-      <c r="Q55" t="n">
+      <c r="U55" t="n">
         <v>66</v>
       </c>
-      <c r="R55" t="n">
+      <c r="V55" t="n">
         <v>66</v>
       </c>
-      <c r="S55" t="inlineStr">
+      <c r="W55" t="inlineStr">
         <is>
           <t>knife</t>
         </is>
       </c>
-      <c r="T55" t="inlineStr">
+      <c r="X55" t="inlineStr">
         <is>
           <t>brawl</t>
         </is>
       </c>
-      <c r="U55" t="inlineStr">
+      <c r="Y55" t="inlineStr">
         <is>
           <t>grace austin</t>
         </is>
       </c>
-      <c r="V55" t="inlineStr">
+      <c r="Z55" t="inlineStr">
         <is>
           <t>grace</t>
         </is>
       </c>
-      <c r="W55" t="inlineStr">
+      <c r="AA55" t="inlineStr">
         <is>
           <t>austin</t>
         </is>
       </c>
-      <c r="X55" t="n">
+      <c r="AB55" t="n">
         <v>1</v>
       </c>
-      <c r="Y55" t="inlineStr">
+      <c r="AC55" t="inlineStr">
         <is>
           <t>100018739</t>
         </is>
       </c>
-      <c r="Z55" t="inlineStr">
+      <c r="AD55" t="inlineStr">
         <is>
           <t>unmatched_entity</t>
         </is>
       </c>
-      <c r="AA55" t="n">
+      <c r="AE55" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10540,62 +10945,70 @@
         </is>
       </c>
       <c r="M56" t="n">
+        <v>19</v>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="Q56" t="n">
         <v>38.89465253</v>
       </c>
-      <c r="N56" t="n">
+      <c r="R56" t="n">
         <v>-76.99109168</v>
       </c>
-      <c r="O56" t="n">
+      <c r="S56" t="n">
         <v>3</v>
       </c>
-      <c r="P56" t="n">
+      <c r="T56" t="n">
         <v>3</v>
       </c>
-      <c r="Q56" t="n">
+      <c r="U56" t="n">
         <v>3</v>
       </c>
-      <c r="R56" t="n">
+      <c r="V56" t="n">
         <v>3</v>
       </c>
-      <c r="S56" t="inlineStr">
+      <c r="W56" t="inlineStr">
         <is>
           <t>blunt object</t>
         </is>
       </c>
-      <c r="T56" t="inlineStr">
+      <c r="X56" t="inlineStr">
         <is>
           <t>negligence</t>
         </is>
       </c>
-      <c r="U56" t="inlineStr">
+      <c r="Y56" t="inlineStr">
         <is>
           <t>carmelita pitts</t>
         </is>
       </c>
-      <c r="V56" t="inlineStr">
+      <c r="Z56" t="inlineStr">
         <is>
           <t>carmelita</t>
         </is>
       </c>
-      <c r="W56" t="inlineStr">
+      <c r="AA56" t="inlineStr">
         <is>
           <t>pitts</t>
         </is>
       </c>
-      <c r="X56" t="n">
+      <c r="AB56" t="n">
         <v>1</v>
       </c>
-      <c r="Y56" t="inlineStr">
+      <c r="AC56" t="inlineStr">
         <is>
           <t>100019154</t>
         </is>
       </c>
-      <c r="Z56" t="inlineStr">
+      <c r="AD56" t="inlineStr">
         <is>
           <t>unmatched_entity</t>
         </is>
       </c>
-      <c r="AA56" t="n">
+      <c r="AE56" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10735,43 +11148,43 @@
           <t>male</t>
         </is>
       </c>
-      <c r="M57" t="n">
+      <c r="Q57" t="n">
         <v>38.8606803729819</v>
       </c>
-      <c r="N57" t="n">
+      <c r="R57" t="n">
         <v>-76.9693260907099</v>
       </c>
-      <c r="O57" t="n">
+      <c r="S57" t="n">
         <v>24</v>
       </c>
-      <c r="P57" t="n">
+      <c r="T57" t="n">
         <v>24</v>
       </c>
-      <c r="Q57" t="n">
+      <c r="U57" t="n">
         <v>24</v>
       </c>
-      <c r="R57" t="n">
+      <c r="V57" t="n">
         <v>24</v>
       </c>
-      <c r="S57" t="inlineStr">
+      <c r="W57" t="inlineStr">
         <is>
           <t>firearm</t>
         </is>
       </c>
-      <c r="X57" t="n">
+      <c r="AB57" t="n">
         <v>1</v>
       </c>
-      <c r="Y57" t="inlineStr">
+      <c r="AC57" t="inlineStr">
         <is>
           <t>100019803</t>
         </is>
       </c>
-      <c r="Z57" t="inlineStr">
+      <c r="AD57" t="inlineStr">
         <is>
           <t>unmatched_entity</t>
         </is>
       </c>
-      <c r="AA57" t="n">
+      <c r="AE57" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10911,43 +11324,43 @@
           <t>male</t>
         </is>
       </c>
-      <c r="M58" t="n">
+      <c r="Q58" t="n">
         <v>38.85781205</v>
       </c>
-      <c r="N58" t="n">
+      <c r="R58" t="n">
         <v>-76.98982051999999</v>
       </c>
-      <c r="O58" t="n">
+      <c r="S58" t="n">
         <v>51</v>
       </c>
-      <c r="P58" t="n">
+      <c r="T58" t="n">
         <v>51</v>
       </c>
-      <c r="Q58" t="n">
+      <c r="U58" t="n">
         <v>51</v>
       </c>
-      <c r="R58" t="n">
+      <c r="V58" t="n">
         <v>51</v>
       </c>
-      <c r="S58" t="inlineStr">
+      <c r="W58" t="inlineStr">
         <is>
           <t>firearm</t>
         </is>
       </c>
-      <c r="X58" t="n">
+      <c r="AB58" t="n">
         <v>1</v>
       </c>
-      <c r="Y58" t="inlineStr">
+      <c r="AC58" t="inlineStr">
         <is>
           <t>100020292</t>
         </is>
       </c>
-      <c r="Z58" t="inlineStr">
+      <c r="AD58" t="inlineStr">
         <is>
           <t>unmatched_entity</t>
         </is>
       </c>
-      <c r="AA58" t="n">
+      <c r="AE58" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11087,48 +11500,48 @@
           <t>male</t>
         </is>
       </c>
-      <c r="M59" t="n">
+      <c r="Q59" t="n">
         <v>38.91469690102235</v>
       </c>
-      <c r="N59" t="n">
+      <c r="R59" t="n">
         <v>-77.0387390924336</v>
       </c>
-      <c r="O59" t="n">
+      <c r="S59" t="n">
         <v>57</v>
       </c>
-      <c r="P59" t="n">
+      <c r="T59" t="n">
         <v>56</v>
       </c>
-      <c r="Q59" t="n">
+      <c r="U59" t="n">
         <v>55</v>
       </c>
-      <c r="R59" t="n">
+      <c r="V59" t="n">
         <v>57</v>
       </c>
-      <c r="S59" t="inlineStr">
+      <c r="W59" t="inlineStr">
         <is>
           <t>firearm</t>
         </is>
       </c>
-      <c r="T59" t="inlineStr">
+      <c r="X59" t="inlineStr">
         <is>
           <t>robbery</t>
         </is>
       </c>
-      <c r="X59" t="n">
+      <c r="AB59" t="n">
         <v>2</v>
       </c>
-      <c r="Y59" t="inlineStr">
+      <c r="AC59" t="inlineStr">
         <is>
           <t>100021528,100020589</t>
         </is>
       </c>
-      <c r="Z59" t="inlineStr">
+      <c r="AD59" t="inlineStr">
         <is>
           <t>unmatched_entity</t>
         </is>
       </c>
-      <c r="AA59" t="n">
+      <c r="AE59" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11268,43 +11681,43 @@
           <t>male</t>
         </is>
       </c>
-      <c r="M60" t="n">
+      <c r="Q60" t="n">
         <v>38.9025143016862</v>
       </c>
-      <c r="N60" t="n">
+      <c r="R60" t="n">
         <v>-77.0013046915693</v>
       </c>
-      <c r="O60" t="n">
+      <c r="S60" t="n">
         <v>28</v>
       </c>
-      <c r="P60" t="n">
+      <c r="T60" t="n">
         <v>28</v>
       </c>
-      <c r="Q60" t="n">
+      <c r="U60" t="n">
         <v>28</v>
       </c>
-      <c r="R60" t="n">
+      <c r="V60" t="n">
         <v>28</v>
       </c>
-      <c r="S60" t="inlineStr">
+      <c r="W60" t="inlineStr">
         <is>
           <t>firearm</t>
         </is>
       </c>
-      <c r="X60" t="n">
+      <c r="AB60" t="n">
         <v>1</v>
       </c>
-      <c r="Y60" t="inlineStr">
+      <c r="AC60" t="inlineStr">
         <is>
           <t>100022057</t>
         </is>
       </c>
-      <c r="Z60" t="inlineStr">
+      <c r="AD60" t="inlineStr">
         <is>
           <t>unmatched_entity</t>
         </is>
       </c>
-      <c r="AA60" t="n">
+      <c r="AE60" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11445,62 +11858,70 @@
         </is>
       </c>
       <c r="M61" t="n">
+        <v>17</v>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="Q61" t="n">
         <v>38.86114729044206</v>
       </c>
-      <c r="N61" t="n">
+      <c r="R61" t="n">
         <v>-76.97456848912223</v>
       </c>
-      <c r="O61" t="n">
+      <c r="S61" t="n">
         <v>47</v>
       </c>
-      <c r="P61" t="n">
+      <c r="T61" t="n">
         <v>47</v>
       </c>
-      <c r="Q61" t="n">
+      <c r="U61" t="n">
         <v>47</v>
       </c>
-      <c r="R61" t="n">
+      <c r="V61" t="n">
         <v>47</v>
       </c>
-      <c r="S61" t="inlineStr">
+      <c r="W61" t="inlineStr">
         <is>
           <t>handgun</t>
         </is>
       </c>
-      <c r="T61" t="inlineStr">
+      <c r="X61" t="inlineStr">
         <is>
           <t>robbery</t>
         </is>
       </c>
-      <c r="U61" t="inlineStr">
+      <c r="Y61" t="inlineStr">
         <is>
           <t>joseph west</t>
         </is>
       </c>
-      <c r="V61" t="inlineStr">
+      <c r="Z61" t="inlineStr">
         <is>
           <t>joseph</t>
         </is>
       </c>
-      <c r="W61" t="inlineStr">
+      <c r="AA61" t="inlineStr">
         <is>
           <t>west</t>
         </is>
       </c>
-      <c r="X61" t="n">
+      <c r="AB61" t="n">
         <v>7</v>
       </c>
-      <c r="Y61" t="inlineStr">
-        <is>
-          <t>100037322,100025319,100023762,100027128,100025888,100025447,100027129</t>
-        </is>
-      </c>
-      <c r="Z61" t="inlineStr">
+      <c r="AC61" t="inlineStr">
+        <is>
+          <t>100023762,100037322,100025319,100025888,100025447,100027129,100027128</t>
+        </is>
+      </c>
+      <c r="AD61" t="inlineStr">
         <is>
           <t>newly_matched</t>
         </is>
       </c>
-      <c r="AA61" t="n">
+      <c r="AE61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11640,42 +12061,42 @@
           <t>female</t>
         </is>
       </c>
-      <c r="O62" t="n">
+      <c r="S62" t="n">
         <v>21</v>
       </c>
-      <c r="P62" t="n">
+      <c r="T62" t="n">
         <v>21</v>
       </c>
-      <c r="Q62" t="n">
+      <c r="U62" t="n">
         <v>21</v>
       </c>
-      <c r="R62" t="n">
+      <c r="V62" t="n">
         <v>21</v>
       </c>
-      <c r="S62" t="inlineStr">
+      <c r="W62" t="inlineStr">
         <is>
           <t>firearm</t>
         </is>
       </c>
-      <c r="T62" t="inlineStr">
+      <c r="X62" t="inlineStr">
         <is>
           <t>robbery</t>
         </is>
       </c>
-      <c r="X62" t="n">
+      <c r="AB62" t="n">
         <v>1</v>
       </c>
-      <c r="Y62" t="inlineStr">
+      <c r="AC62" t="inlineStr">
         <is>
           <t>100025667</t>
         </is>
       </c>
-      <c r="Z62" t="inlineStr">
+      <c r="AD62" t="inlineStr">
         <is>
           <t>unmatched_entity</t>
         </is>
       </c>
-      <c r="AA62" t="n">
+      <c r="AE62" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11811,47 +12232,50 @@
         </is>
       </c>
       <c r="M63" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q63" t="n">
         <v>38.85880612</v>
       </c>
-      <c r="N63" t="n">
+      <c r="R63" t="n">
         <v>-76.9626421</v>
       </c>
-      <c r="O63" t="n">
+      <c r="S63" t="n">
         <v>17</v>
       </c>
-      <c r="P63" t="n">
+      <c r="T63" t="n">
         <v>17</v>
       </c>
-      <c r="Q63" t="n">
+      <c r="U63" t="n">
         <v>17</v>
       </c>
-      <c r="R63" t="n">
+      <c r="V63" t="n">
         <v>17</v>
       </c>
-      <c r="S63" t="inlineStr">
+      <c r="W63" t="inlineStr">
         <is>
           <t>firearm</t>
         </is>
       </c>
-      <c r="T63" t="inlineStr">
+      <c r="X63" t="inlineStr">
         <is>
           <t>argument</t>
         </is>
       </c>
-      <c r="X63" t="n">
+      <c r="AB63" t="n">
         <v>1</v>
       </c>
-      <c r="Y63" t="inlineStr">
+      <c r="AC63" t="inlineStr">
         <is>
           <t>100026122</t>
         </is>
       </c>
-      <c r="Z63" t="inlineStr">
+      <c r="AD63" t="inlineStr">
         <is>
           <t>unmatched_entity</t>
         </is>
       </c>
-      <c r="AA63" t="n">
+      <c r="AE63" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11992,62 +12416,70 @@
         </is>
       </c>
       <c r="M64" t="n">
+        <v>27</v>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="Q64" t="n">
         <v>38.9126057064239</v>
       </c>
-      <c r="N64" t="n">
+      <c r="R64" t="n">
         <v>-77.0296224305404</v>
       </c>
-      <c r="O64" t="n">
+      <c r="S64" t="n">
         <v>21</v>
       </c>
-      <c r="P64" t="n">
+      <c r="T64" t="n">
         <v>21</v>
       </c>
-      <c r="Q64" t="n">
+      <c r="U64" t="n">
         <v>21</v>
       </c>
-      <c r="R64" t="n">
+      <c r="V64" t="n">
         <v>21</v>
       </c>
-      <c r="S64" t="inlineStr">
+      <c r="W64" t="inlineStr">
         <is>
           <t>knife</t>
         </is>
       </c>
-      <c r="T64" t="inlineStr">
+      <c r="X64" t="inlineStr">
         <is>
           <t>robbery</t>
         </is>
       </c>
-      <c r="U64" t="inlineStr">
+      <c r="Y64" t="inlineStr">
         <is>
           <t>daniel strickland</t>
         </is>
       </c>
-      <c r="V64" t="inlineStr">
+      <c r="Z64" t="inlineStr">
         <is>
           <t>daniel</t>
         </is>
       </c>
-      <c r="W64" t="inlineStr">
+      <c r="AA64" t="inlineStr">
         <is>
           <t>strickland</t>
         </is>
       </c>
-      <c r="X64" t="n">
+      <c r="AB64" t="n">
         <v>1</v>
       </c>
-      <c r="Y64" t="inlineStr">
+      <c r="AC64" t="inlineStr">
         <is>
           <t>100029351</t>
         </is>
       </c>
-      <c r="Z64" t="inlineStr">
+      <c r="AD64" t="inlineStr">
         <is>
           <t>unmatched_entity</t>
         </is>
       </c>
-      <c r="AA64" t="n">
+      <c r="AE64" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12187,63 +12619,63 @@
           <t>male</t>
         </is>
       </c>
-      <c r="M65" t="n">
+      <c r="Q65" t="n">
         <v>38.9164872525532</v>
       </c>
-      <c r="N65" t="n">
+      <c r="R65" t="n">
         <v>-77.029329083541</v>
       </c>
-      <c r="O65" t="n">
+      <c r="S65" t="n">
         <v>43</v>
       </c>
-      <c r="P65" t="n">
+      <c r="T65" t="n">
         <v>43</v>
       </c>
-      <c r="Q65" t="n">
+      <c r="U65" t="n">
         <v>43</v>
       </c>
-      <c r="R65" t="n">
+      <c r="V65" t="n">
         <v>43</v>
       </c>
-      <c r="S65" t="inlineStr">
+      <c r="W65" t="inlineStr">
         <is>
           <t>handgun</t>
         </is>
       </c>
-      <c r="T65" t="inlineStr">
+      <c r="X65" t="inlineStr">
         <is>
           <t>brawl</t>
         </is>
       </c>
-      <c r="U65" t="inlineStr">
+      <c r="Y65" t="inlineStr">
         <is>
           <t>george bellinger</t>
         </is>
       </c>
-      <c r="V65" t="inlineStr">
+      <c r="Z65" t="inlineStr">
         <is>
           <t>george</t>
         </is>
       </c>
-      <c r="W65" t="inlineStr">
+      <c r="AA65" t="inlineStr">
         <is>
           <t>bellinger</t>
         </is>
       </c>
-      <c r="X65" t="n">
+      <c r="AB65" t="n">
         <v>1</v>
       </c>
-      <c r="Y65" t="inlineStr">
+      <c r="AC65" t="inlineStr">
         <is>
           <t>100030454</t>
         </is>
       </c>
-      <c r="Z65" t="inlineStr">
+      <c r="AD65" t="inlineStr">
         <is>
           <t>unmatched_entity</t>
         </is>
       </c>
-      <c r="AA65" t="n">
+      <c r="AE65" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12384,62 +12816,70 @@
         </is>
       </c>
       <c r="M66" t="n">
+        <v>28</v>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="Q66" t="n">
         <v>38.9364283</v>
       </c>
-      <c r="N66" t="n">
+      <c r="R66" t="n">
         <v>-77.03726282</v>
       </c>
-      <c r="O66" t="n">
+      <c r="S66" t="n">
         <v>37</v>
       </c>
-      <c r="P66" t="n">
+      <c r="T66" t="n">
         <v>37</v>
       </c>
-      <c r="Q66" t="n">
+      <c r="U66" t="n">
         <v>37</v>
       </c>
-      <c r="R66" t="n">
+      <c r="V66" t="n">
         <v>37</v>
       </c>
-      <c r="S66" t="inlineStr">
+      <c r="W66" t="inlineStr">
         <is>
           <t>handgun</t>
         </is>
       </c>
-      <c r="T66" t="inlineStr">
+      <c r="X66" t="inlineStr">
         <is>
           <t>brawl</t>
         </is>
       </c>
-      <c r="U66" t="inlineStr">
+      <c r="Y66" t="inlineStr">
         <is>
           <t>nathaniel mcqueen</t>
         </is>
       </c>
-      <c r="V66" t="inlineStr">
+      <c r="Z66" t="inlineStr">
         <is>
           <t>nathaniel</t>
         </is>
       </c>
-      <c r="W66" t="inlineStr">
+      <c r="AA66" t="inlineStr">
         <is>
           <t>mcqueen</t>
         </is>
       </c>
-      <c r="X66" t="n">
+      <c r="AB66" t="n">
         <v>2</v>
       </c>
-      <c r="Y66" t="inlineStr">
-        <is>
-          <t>100031486,100030958</t>
-        </is>
-      </c>
-      <c r="Z66" t="inlineStr">
+      <c r="AC66" t="inlineStr">
+        <is>
+          <t>100030958,100031486</t>
+        </is>
+      </c>
+      <c r="AD66" t="inlineStr">
         <is>
           <t>unmatched_entity</t>
         </is>
       </c>
-      <c r="AA66" t="n">
+      <c r="AE66" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12471,44 +12911,44 @@
           <t>female</t>
         </is>
       </c>
-      <c r="M67" t="n">
+      <c r="Q67" t="n">
         <v>38.9058531</v>
       </c>
-      <c r="N67" t="n">
+      <c r="R67" t="n">
         <v>-77.02881754000001</v>
       </c>
-      <c r="O67" t="n">
+      <c r="S67" t="n">
         <v>77</v>
       </c>
-      <c r="S67" t="inlineStr">
+      <c r="W67" t="inlineStr">
         <is>
           <t>knife</t>
         </is>
       </c>
-      <c r="T67" t="inlineStr">
+      <c r="X67" t="inlineStr">
         <is>
           <t>undetermined</t>
         </is>
       </c>
-      <c r="U67" t="inlineStr">
+      <c r="Y67" t="inlineStr">
         <is>
           <t>Ralph Robert Fox</t>
         </is>
       </c>
-      <c r="X67" t="n">
+      <c r="AB67" t="n">
         <v>1</v>
       </c>
-      <c r="Y67" t="inlineStr">
+      <c r="AC67" t="inlineStr">
         <is>
           <t>100031895</t>
         </is>
       </c>
-      <c r="Z67" t="inlineStr">
+      <c r="AD67" t="inlineStr">
         <is>
           <t>singleton_orphan</t>
         </is>
       </c>
-      <c r="AA67" t="n">
+      <c r="AE67" t="n">
         <v>2</v>
       </c>
     </row>
@@ -12644,50 +13084,58 @@
         </is>
       </c>
       <c r="M68" t="n">
+        <v>29</v>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="Q68" t="n">
         <v>38.84635252</v>
       </c>
-      <c r="N68" t="n">
+      <c r="R68" t="n">
         <v>-76.97371324</v>
       </c>
-      <c r="S68" t="inlineStr">
+      <c r="W68" t="inlineStr">
         <is>
           <t>knife</t>
         </is>
       </c>
-      <c r="T68" t="inlineStr">
+      <c r="X68" t="inlineStr">
         <is>
           <t>argument</t>
         </is>
       </c>
-      <c r="U68" t="inlineStr">
+      <c r="Y68" t="inlineStr">
         <is>
           <t>frank lyles</t>
         </is>
       </c>
-      <c r="V68" t="inlineStr">
+      <c r="Z68" t="inlineStr">
         <is>
           <t>frank</t>
         </is>
       </c>
-      <c r="W68" t="inlineStr">
+      <c r="AA68" t="inlineStr">
         <is>
           <t>lyles</t>
         </is>
       </c>
-      <c r="X68" t="n">
+      <c r="AB68" t="n">
         <v>1</v>
       </c>
-      <c r="Y68" t="inlineStr">
+      <c r="AC68" t="inlineStr">
         <is>
           <t>100032715</t>
         </is>
       </c>
-      <c r="Z68" t="inlineStr">
+      <c r="AD68" t="inlineStr">
         <is>
           <t>unmatched_entity</t>
         </is>
       </c>
-      <c r="AA68" t="n">
+      <c r="AE68" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12828,57 +13276,65 @@
         </is>
       </c>
       <c r="M69" t="n">
+        <v>23</v>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="Q69" t="n">
         <v>38.8801759</v>
       </c>
-      <c r="N69" t="n">
+      <c r="R69" t="n">
         <v>-76.99641043</v>
       </c>
-      <c r="O69" t="n">
+      <c r="S69" t="n">
         <v>21</v>
       </c>
-      <c r="P69" t="n">
+      <c r="T69" t="n">
         <v>21</v>
       </c>
-      <c r="Q69" t="n">
+      <c r="U69" t="n">
         <v>21</v>
       </c>
-      <c r="R69" t="n">
+      <c r="V69" t="n">
         <v>21</v>
       </c>
-      <c r="S69" t="inlineStr">
+      <c r="W69" t="inlineStr">
         <is>
           <t>firearm</t>
         </is>
       </c>
-      <c r="U69" t="inlineStr">
+      <c r="Y69" t="inlineStr">
         <is>
           <t>johnny simms</t>
         </is>
       </c>
-      <c r="V69" t="inlineStr">
+      <c r="Z69" t="inlineStr">
         <is>
           <t>johnny</t>
         </is>
       </c>
-      <c r="W69" t="inlineStr">
+      <c r="AA69" t="inlineStr">
         <is>
           <t>simms</t>
         </is>
       </c>
-      <c r="X69" t="n">
+      <c r="AB69" t="n">
         <v>1</v>
       </c>
-      <c r="Y69" t="inlineStr">
+      <c r="AC69" t="inlineStr">
         <is>
           <t>100033283</t>
         </is>
       </c>
-      <c r="Z69" t="inlineStr">
+      <c r="AD69" t="inlineStr">
         <is>
           <t>unmatched_entity</t>
         </is>
       </c>
-      <c r="AA69" t="n">
+      <c r="AE69" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13018,64 +13474,72 @@
           <t>female</t>
         </is>
       </c>
-      <c r="O70" t="n">
+      <c r="M70" t="n">
+        <v>19</v>
+      </c>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="S70" t="n">
         <v>84</v>
       </c>
-      <c r="P70" t="n">
+      <c r="T70" t="n">
         <v>84</v>
       </c>
-      <c r="Q70" t="n">
+      <c r="U70" t="n">
         <v>84</v>
       </c>
-      <c r="R70" t="n">
+      <c r="V70" t="n">
         <v>84</v>
       </c>
-      <c r="S70" t="inlineStr">
+      <c r="W70" t="inlineStr">
         <is>
           <t>blunt object</t>
         </is>
       </c>
-      <c r="T70" t="inlineStr">
+      <c r="X70" t="inlineStr">
         <is>
           <t>brawl</t>
         </is>
       </c>
-      <c r="U70" t="inlineStr">
+      <c r="Y70" t="inlineStr">
         <is>
           <t>dennis wilson</t>
         </is>
       </c>
-      <c r="V70" t="inlineStr">
+      <c r="Z70" t="inlineStr">
         <is>
           <t>dennis</t>
         </is>
       </c>
-      <c r="W70" t="inlineStr">
+      <c r="AA70" t="inlineStr">
         <is>
           <t>wilson</t>
         </is>
       </c>
-      <c r="X70" t="n">
+      <c r="AB70" t="n">
         <v>2</v>
       </c>
-      <c r="Y70" t="inlineStr">
+      <c r="AC70" t="inlineStr">
         <is>
           <t>100033844,100033633</t>
         </is>
       </c>
-      <c r="Z70" t="inlineStr">
+      <c r="AD70" t="inlineStr">
         <is>
           <t>unmatched_entity</t>
         </is>
       </c>
-      <c r="AA70" t="n">
+      <c r="AE70" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>100035465:0:0</t>
+          <t>100034545:0:0</t>
         </is>
       </c>
       <c r="B71" t="n">
@@ -13088,6 +13552,210 @@
         <v>2864</v>
       </c>
       <c r="E71" t="inlineStr">
+        <is>
+          <t>[-3.26759033e-02  4.53369133e-02 -7.02494681e-02  4.39365357e-02
+ -3.00386325e-02  6.93549290e-02  2.75946744e-02  1.34542314e-02
+ -4.00564820e-02  6.52928203e-02  9.38997939e-02 -2.07418110e-02
+ -4.54243505e-03 -7.42886215e-02 -8.03646073e-02  6.05706079e-03
+  1.60202961e-02  1.31882296e-03  1.87216904e-02  7.69994333e-02
+ -6.18581995e-02  1.01445820e-02  2.22887639e-02 -5.68786487e-02
+  4.54188213e-02 -5.61450701e-03  8.16725753e-03 -4.24236385e-03
+ -4.28853557e-02 -4.09591347e-02  4.16003354e-02 -8.64805803e-02
+  7.12689981e-02  5.95342182e-02  4.23881412e-02 -5.25862798e-02
+  1.21308230e-01 -1.28326351e-02 -1.29364980e-02 -5.04021347e-03
+ -3.63207422e-02  4.14355565e-03 -2.55650897e-02  1.28084365e-02
+ -5.40668331e-02 -2.10736245e-02  4.76963036e-02  3.50675546e-02
+ -3.25003378e-02 -5.94151579e-02  8.36620014e-03  9.35531706e-02
+ -2.96226908e-02  3.47435661e-02 -3.47999036e-02 -2.26104110e-02
+  1.16145229e-02  3.02550513e-02  1.88576877e-02 -1.96157880e-02
+  4.59806323e-02  7.10726604e-02 -2.30114069e-02 -1.34326902e-03
+ -8.99612531e-02 -2.90306825e-02 -4.42368127e-02  2.02810615e-02
+  1.05959930e-01  1.06257342e-01  5.55596948e-02 -2.14745738e-02
+ -7.49801770e-02 -5.00463098e-02  8.94662179e-03  5.97315654e-02
+  3.14190723e-02 -1.12677276e-01 -2.37142015e-03 -1.69723164e-02
+ -4.01244797e-02 -4.49166112e-02 -8.04676395e-03  4.20667306e-02
+  5.21436334e-02 -4.42100875e-02 -4.95493319e-03  7.94203803e-02
+  6.02988992e-03 -1.62196476e-02  7.06660524e-02  2.42837388e-02
+  4.60387254e-03 -2.18174467e-03  2.52273101e-02 -3.27164643e-02
+  4.01460193e-03  3.69449258e-02 -6.50698468e-02 -2.11827252e-02
+ -1.36590097e-02  4.49505486e-02 -2.83750165e-02  2.58838013e-02
+  7.02347979e-02  1.72216594e-02  1.38604809e-02 -4.10140073e-03
+ -3.89060378e-02 -6.96496293e-02  5.45308366e-02 -1.62780583e-02
+ -2.80965045e-02  1.58393607e-02  4.98319604e-02  3.22455280e-02
+  1.29343802e-02 -1.72089860e-02 -3.51861231e-02 -4.41795848e-02
+  2.53317505e-02  3.23996656e-02 -7.30734169e-02  2.17426457e-02
+ -4.10517789e-02  3.18714324e-03  1.91521365e-02  1.31374222e-33
+ -5.81976771e-02  1.17715513e-02 -6.87770620e-02 -7.47598766e-04
+  4.12248075e-03 -3.17105502e-02 -5.63048311e-02  2.28637513e-02
+  1.25840873e-01  7.63094053e-02  1.07218130e-02 -1.28270909e-01
+  3.66814062e-02 -1.18132606e-01 -1.74933635e-02  1.13925338e-01
+  2.88421102e-03  6.21867143e-02 -2.57501900e-02 -1.45822214e-02
+ -3.39821205e-02  4.42842068e-03 -2.30047088e-02 -1.45182069e-02
+ -8.49949718e-02 -1.44138988e-02  8.97208974e-02  4.66269627e-02
+  7.36193266e-03  6.82471320e-03  2.82026734e-02  5.10878600e-02
+  9.98229608e-02  1.05781831e-01  1.11535182e-02  5.51449507e-02
+  3.28541659e-02 -2.74382196e-02  1.27106821e-02  4.90352325e-02
+ -3.00460812e-02  5.97051438e-03  6.50959313e-02 -3.02180070e-02
+ -1.45134358e-02  1.82877723e-02 -7.56731033e-02  9.61353909e-03
+  6.93655238e-02  1.03935758e-02  4.76271706e-03 -2.65977215e-02
+  5.44248521e-02  8.14537480e-02  1.14067001e-02  1.28685072e-01
+ -7.05707595e-02  4.49754111e-02  1.24696426e-01  4.40817326e-02
+  1.68629121e-02  9.23921727e-03 -6.61358889e-03  3.04659754e-02
+ -2.29381919e-02 -7.84145668e-02  2.58731209e-02 -6.54073581e-02
+ -6.45966902e-02  8.36346149e-02 -2.52004433e-02  1.05012268e-01
+  6.84772059e-02 -6.42210469e-02 -8.18078145e-02  5.04277088e-02
+  1.05652008e-02 -8.95769615e-03 -9.34233814e-02  4.80940193e-02
+ -2.13941634e-02 -3.28392535e-02  1.83282718e-02  5.02025671e-02
+  6.80290759e-02 -2.27788985e-02 -2.25664284e-02  1.00292945e-02
+  4.72650724e-03  1.21123217e-01  5.61381876e-02 -4.64904588e-03
+ -1.91257253e-01 -4.03671935e-02  1.85758248e-02 -1.54252097e-33
+  7.46664451e-03 -5.79456687e-02 -8.72105509e-02 -4.46830876e-03
+ -4.97227274e-02 -3.01280767e-02 -2.28409506e-02  1.69565342e-02
+ -2.63405256e-02 -6.30009174e-02 -1.19259618e-02 -5.05619198e-02
+  1.08544827e-02  1.24830827e-02  7.54094198e-02 -2.78615244e-02
+ -1.40230311e-02 -4.41000462e-02 -3.66113372e-02  3.05431951e-02
+ -1.22413024e-01 -7.32526109e-02 -9.58025828e-03 -1.34901293e-02
+ -4.06468334e-03 -3.99701996e-03  1.48044911e-03 -2.17607375e-02
+ -4.35518213e-02 -2.21666954e-02  4.35794480e-02 -2.26642545e-02
+  1.47799021e-02  2.28386465e-02 -9.77079347e-02  9.46041197e-02
+  1.30743042e-01 -4.30351682e-02  3.50306369e-02 -4.10122275e-02
+ -1.02319531e-02 -7.00864475e-03 -1.52561190e-02  1.98099017e-03
+  8.44701007e-02  9.01242997e-03  1.72338337e-02  5.43503202e-02
+  2.06689257e-02 -1.39605347e-02  5.58860935e-02 -1.68826431e-03
+  3.75205800e-02  8.91967118e-02  1.70777980e-02 -1.05000421e-01
+  4.49762084e-02 -9.49100927e-02 -9.21975635e-03 -4.42205518e-02
+  4.23590206e-02  6.05168268e-02 -7.83040449e-02  3.17712687e-02
+ -3.85451969e-03 -3.38498503e-02 -1.41811877e-01 -1.13022067e-01
+ -3.27687263e-02  1.12374243e-03  3.86837535e-02  1.49631957e-02
+ -2.91428026e-02 -1.97002981e-02  8.97593610e-03  5.27135506e-02
+  7.58265331e-02  9.34677478e-03  2.89749005e-03 -9.86401364e-02
+  3.81809808e-02  1.56946760e-02  1.25273119e-03  6.50456250e-02
+ -1.05215237e-01  4.08720300e-02  2.87498813e-02  6.44746423e-02
+  5.74617758e-02 -3.49273789e-03 -2.13572150e-03 -1.31549472e-02
+  9.38053150e-03 -3.14969942e-02 -8.71722996e-02 -2.61099817e-08
+ -6.88161179e-02  2.88032573e-02 -4.49154712e-03 -5.44861853e-02
+ -3.32801230e-02  1.40221328e-01 -1.47504397e-02  8.60108510e-02
+  1.58137921e-02  3.71890999e-02 -3.65406647e-02  3.14502954e-03
+  2.01887246e-02 -3.93085107e-02 -8.16725865e-02 -9.56767574e-02
+  2.64966413e-02 -6.81373850e-02 -3.87822986e-02  3.22770737e-02
+ -6.13722205e-02  6.90067559e-02  2.33972427e-02  4.00914252e-02
+  9.67557449e-03 -8.20589345e-03 -1.84995476e-02 -3.96832377e-02
+ -1.22037809e-02 -2.92793810e-02 -2.07705144e-02  2.26694830e-02
+ -1.38974804e-02 -1.97409913e-02 -2.21953373e-02  7.95949996e-02
+  7.33007416e-02  3.86299975e-02  1.53854396e-02 -5.56133613e-02
+ -6.98400140e-02 -7.04227909e-02 -3.08371168e-02 -3.52859087e-02
+  1.67329405e-02 -1.31091923e-02 -5.05352989e-02 -7.78674111e-02
+  3.18733677e-02  5.89813897e-03 -5.79879172e-02 -2.78769284e-02
+  4.20115031e-02 -2.08324213e-02 -2.66453717e-02 -3.55046950e-02
+  2.49000564e-02 -2.65150405e-02  4.32398450e-03  6.07697070e-02
+  7.49638677e-02 -3.74927372e-03 -3.21161635e-02  4.84372824e-02]</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="G71" s="3" t="n">
+        <v>28433</v>
+      </c>
+      <c r="H71" t="n">
+        <v>2864</v>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>margaret harris</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="M71" t="n">
+        <v>68</v>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="Q71" t="n">
+        <v>38.91532904</v>
+      </c>
+      <c r="R71" t="n">
+        <v>-77.02926796</v>
+      </c>
+      <c r="S71" t="n">
+        <v>57</v>
+      </c>
+      <c r="T71" t="n">
+        <v>57</v>
+      </c>
+      <c r="U71" t="n">
+        <v>57</v>
+      </c>
+      <c r="V71" t="n">
+        <v>57</v>
+      </c>
+      <c r="W71" t="inlineStr">
+        <is>
+          <t>blunt object</t>
+        </is>
+      </c>
+      <c r="X71" t="inlineStr">
+        <is>
+          <t>argument</t>
+        </is>
+      </c>
+      <c r="Y71" t="inlineStr">
+        <is>
+          <t>gaston brakes</t>
+        </is>
+      </c>
+      <c r="Z71" t="inlineStr">
+        <is>
+          <t>gaston</t>
+        </is>
+      </c>
+      <c r="AA71" t="inlineStr">
+        <is>
+          <t>brakes</t>
+        </is>
+      </c>
+      <c r="AB71" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC71" t="inlineStr">
+        <is>
+          <t>100034545</t>
+        </is>
+      </c>
+      <c r="AD71" t="inlineStr">
+        <is>
+          <t>unmatched_entity</t>
+        </is>
+      </c>
+      <c r="AE71" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>100035465:0:0</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>2</v>
+      </c>
+      <c r="C72" t="n">
+        <v>2864</v>
+      </c>
+      <c r="D72" t="n">
+        <v>2864</v>
+      </c>
+      <c r="E72" t="inlineStr">
         <is>
           <t>[ 3.76968505e-03  1.00881383e-01 -1.02217175e-01 -4.95271981e-02
   5.25747612e-02  7.90575612e-03  7.88805857e-02 -1.97433550e-02
@@ -13187,202 +13855,6 @@
   7.73017630e-02 -3.08037139e-02  2.41363551e-02 -1.48483189e-02]</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>day</t>
-        </is>
-      </c>
-      <c r="G71" s="3" t="n">
-        <v>28433</v>
-      </c>
-      <c r="H71" t="n">
-        <v>2864</v>
-      </c>
-      <c r="I71" t="inlineStr">
-        <is>
-          <t>brian perkins</t>
-        </is>
-      </c>
-      <c r="J71" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
-        <v>38.92131124</v>
-      </c>
-      <c r="N71" t="n">
-        <v>-77.03357609</v>
-      </c>
-      <c r="O71" t="n">
-        <v>18</v>
-      </c>
-      <c r="P71" t="n">
-        <v>18</v>
-      </c>
-      <c r="Q71" t="n">
-        <v>18</v>
-      </c>
-      <c r="R71" t="n">
-        <v>18</v>
-      </c>
-      <c r="S71" t="inlineStr">
-        <is>
-          <t>handgun</t>
-        </is>
-      </c>
-      <c r="T71" t="inlineStr">
-        <is>
-          <t>robbery</t>
-        </is>
-      </c>
-      <c r="U71" t="inlineStr">
-        <is>
-          <t>wayne perkins</t>
-        </is>
-      </c>
-      <c r="V71" t="inlineStr">
-        <is>
-          <t>wayne</t>
-        </is>
-      </c>
-      <c r="W71" t="inlineStr">
-        <is>
-          <t>perkins</t>
-        </is>
-      </c>
-      <c r="X71" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y71" t="inlineStr">
-        <is>
-          <t>100035465</t>
-        </is>
-      </c>
-      <c r="Z71" t="inlineStr">
-        <is>
-          <t>unmatched_entity</t>
-        </is>
-      </c>
-      <c r="AA71" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>100034545:0:0</t>
-        </is>
-      </c>
-      <c r="B72" t="n">
-        <v>2</v>
-      </c>
-      <c r="C72" t="n">
-        <v>2864</v>
-      </c>
-      <c r="D72" t="n">
-        <v>2864</v>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>[-3.26759033e-02  4.53369133e-02 -7.02494681e-02  4.39365357e-02
- -3.00386325e-02  6.93549290e-02  2.75946744e-02  1.34542314e-02
- -4.00564820e-02  6.52928203e-02  9.38997939e-02 -2.07418110e-02
- -4.54243505e-03 -7.42886215e-02 -8.03646073e-02  6.05706079e-03
-  1.60202961e-02  1.31882296e-03  1.87216904e-02  7.69994333e-02
- -6.18581995e-02  1.01445820e-02  2.22887639e-02 -5.68786487e-02
-  4.54188213e-02 -5.61450701e-03  8.16725753e-03 -4.24236385e-03
- -4.28853557e-02 -4.09591347e-02  4.16003354e-02 -8.64805803e-02
-  7.12689981e-02  5.95342182e-02  4.23881412e-02 -5.25862798e-02
-  1.21308230e-01 -1.28326351e-02 -1.29364980e-02 -5.04021347e-03
- -3.63207422e-02  4.14355565e-03 -2.55650897e-02  1.28084365e-02
- -5.40668331e-02 -2.10736245e-02  4.76963036e-02  3.50675546e-02
- -3.25003378e-02 -5.94151579e-02  8.36620014e-03  9.35531706e-02
- -2.96226908e-02  3.47435661e-02 -3.47999036e-02 -2.26104110e-02
-  1.16145229e-02  3.02550513e-02  1.88576877e-02 -1.96157880e-02
-  4.59806323e-02  7.10726604e-02 -2.30114069e-02 -1.34326902e-03
- -8.99612531e-02 -2.90306825e-02 -4.42368127e-02  2.02810615e-02
-  1.05959930e-01  1.06257342e-01  5.55596948e-02 -2.14745738e-02
- -7.49801770e-02 -5.00463098e-02  8.94662179e-03  5.97315654e-02
-  3.14190723e-02 -1.12677276e-01 -2.37142015e-03 -1.69723164e-02
- -4.01244797e-02 -4.49166112e-02 -8.04676395e-03  4.20667306e-02
-  5.21436334e-02 -4.42100875e-02 -4.95493319e-03  7.94203803e-02
-  6.02988992e-03 -1.62196476e-02  7.06660524e-02  2.42837388e-02
-  4.60387254e-03 -2.18174467e-03  2.52273101e-02 -3.27164643e-02
-  4.01460193e-03  3.69449258e-02 -6.50698468e-02 -2.11827252e-02
- -1.36590097e-02  4.49505486e-02 -2.83750165e-02  2.58838013e-02
-  7.02347979e-02  1.72216594e-02  1.38604809e-02 -4.10140073e-03
- -3.89060378e-02 -6.96496293e-02  5.45308366e-02 -1.62780583e-02
- -2.80965045e-02  1.58393607e-02  4.98319604e-02  3.22455280e-02
-  1.29343802e-02 -1.72089860e-02 -3.51861231e-02 -4.41795848e-02
-  2.53317505e-02  3.23996656e-02 -7.30734169e-02  2.17426457e-02
- -4.10517789e-02  3.18714324e-03  1.91521365e-02  1.31374222e-33
- -5.81976771e-02  1.17715513e-02 -6.87770620e-02 -7.47598766e-04
-  4.12248075e-03 -3.17105502e-02 -5.63048311e-02  2.28637513e-02
-  1.25840873e-01  7.63094053e-02  1.07218130e-02 -1.28270909e-01
-  3.66814062e-02 -1.18132606e-01 -1.74933635e-02  1.13925338e-01
-  2.88421102e-03  6.21867143e-02 -2.57501900e-02 -1.45822214e-02
- -3.39821205e-02  4.42842068e-03 -2.30047088e-02 -1.45182069e-02
- -8.49949718e-02 -1.44138988e-02  8.97208974e-02  4.66269627e-02
-  7.36193266e-03  6.82471320e-03  2.82026734e-02  5.10878600e-02
-  9.98229608e-02  1.05781831e-01  1.11535182e-02  5.51449507e-02
-  3.28541659e-02 -2.74382196e-02  1.27106821e-02  4.90352325e-02
- -3.00460812e-02  5.97051438e-03  6.50959313e-02 -3.02180070e-02
- -1.45134358e-02  1.82877723e-02 -7.56731033e-02  9.61353909e-03
-  6.93655238e-02  1.03935758e-02  4.76271706e-03 -2.65977215e-02
-  5.44248521e-02  8.14537480e-02  1.14067001e-02  1.28685072e-01
- -7.05707595e-02  4.49754111e-02  1.24696426e-01  4.40817326e-02
-  1.68629121e-02  9.23921727e-03 -6.61358889e-03  3.04659754e-02
- -2.29381919e-02 -7.84145668e-02  2.58731209e-02 -6.54073581e-02
- -6.45966902e-02  8.36346149e-02 -2.52004433e-02  1.05012268e-01
-  6.84772059e-02 -6.42210469e-02 -8.18078145e-02  5.04277088e-02
-  1.05652008e-02 -8.95769615e-03 -9.34233814e-02  4.80940193e-02
- -2.13941634e-02 -3.28392535e-02  1.83282718e-02  5.02025671e-02
-  6.80290759e-02 -2.27788985e-02 -2.25664284e-02  1.00292945e-02
-  4.72650724e-03  1.21123217e-01  5.61381876e-02 -4.64904588e-03
- -1.91257253e-01 -4.03671935e-02  1.85758248e-02 -1.54252097e-33
-  7.46664451e-03 -5.79456687e-02 -8.72105509e-02 -4.46830876e-03
- -4.97227274e-02 -3.01280767e-02 -2.28409506e-02  1.69565342e-02
- -2.63405256e-02 -6.30009174e-02 -1.19259618e-02 -5.05619198e-02
-  1.08544827e-02  1.24830827e-02  7.54094198e-02 -2.78615244e-02
- -1.40230311e-02 -4.41000462e-02 -3.66113372e-02  3.05431951e-02
- -1.22413024e-01 -7.32526109e-02 -9.58025828e-03 -1.34901293e-02
- -4.06468334e-03 -3.99701996e-03  1.48044911e-03 -2.17607375e-02
- -4.35518213e-02 -2.21666954e-02  4.35794480e-02 -2.26642545e-02
-  1.47799021e-02  2.28386465e-02 -9.77079347e-02  9.46041197e-02
-  1.30743042e-01 -4.30351682e-02  3.50306369e-02 -4.10122275e-02
- -1.02319531e-02 -7.00864475e-03 -1.52561190e-02  1.98099017e-03
-  8.44701007e-02  9.01242997e-03  1.72338337e-02  5.43503202e-02
-  2.06689257e-02 -1.39605347e-02  5.58860935e-02 -1.68826431e-03
-  3.75205800e-02  8.91967118e-02  1.70777980e-02 -1.05000421e-01
-  4.49762084e-02 -9.49100927e-02 -9.21975635e-03 -4.42205518e-02
-  4.23590206e-02  6.05168268e-02 -7.83040449e-02  3.17712687e-02
- -3.85451969e-03 -3.38498503e-02 -1.41811877e-01 -1.13022067e-01
- -3.27687263e-02  1.12374243e-03  3.86837535e-02  1.49631957e-02
- -2.91428026e-02 -1.97002981e-02  8.97593610e-03  5.27135506e-02
-  7.58265331e-02  9.34677478e-03  2.89749005e-03 -9.86401364e-02
-  3.81809808e-02  1.56946760e-02  1.25273119e-03  6.50456250e-02
- -1.05215237e-01  4.08720300e-02  2.87498813e-02  6.44746423e-02
-  5.74617758e-02 -3.49273789e-03 -2.13572150e-03 -1.31549472e-02
-  9.38053150e-03 -3.14969942e-02 -8.71722996e-02 -2.61099817e-08
- -6.88161179e-02  2.88032573e-02 -4.49154712e-03 -5.44861853e-02
- -3.32801230e-02  1.40221328e-01 -1.47504397e-02  8.60108510e-02
-  1.58137921e-02  3.71890999e-02 -3.65406647e-02  3.14502954e-03
-  2.01887246e-02 -3.93085107e-02 -8.16725865e-02 -9.56767574e-02
-  2.64966413e-02 -6.81373850e-02 -3.87822986e-02  3.22770737e-02
- -6.13722205e-02  6.90067559e-02  2.33972427e-02  4.00914252e-02
-  9.67557449e-03 -8.20589345e-03 -1.84995476e-02 -3.96832377e-02
- -1.22037809e-02 -2.92793810e-02 -2.07705144e-02  2.26694830e-02
- -1.38974804e-02 -1.97409913e-02 -2.21953373e-02  7.95949996e-02
-  7.33007416e-02  3.86299975e-02  1.53854396e-02 -5.56133613e-02
- -6.98400140e-02 -7.04227909e-02 -3.08371168e-02 -3.52859087e-02
-  1.67329405e-02 -1.31091923e-02 -5.05352989e-02 -7.78674111e-02
-  3.18733677e-02  5.89813897e-03 -5.79879172e-02 -2.78769284e-02
-  4.20115031e-02 -2.08324213e-02 -2.66453717e-02 -3.55046950e-02
-  2.49000564e-02 -2.65150405e-02  4.32398450e-03  6.07697070e-02
-  7.49638677e-02 -3.74927372e-03 -3.21161635e-02  4.84372824e-02]</t>
-        </is>
-      </c>
       <c r="F72" t="inlineStr">
         <is>
           <t>day</t>
@@ -13396,71 +13868,79 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>margaret harris</t>
+          <t>brian perkins</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="M72" t="n">
-        <v>38.91532904</v>
-      </c>
-      <c r="N72" t="n">
-        <v>-77.02926796</v>
-      </c>
-      <c r="O72" t="n">
-        <v>57</v>
-      </c>
-      <c r="P72" t="n">
-        <v>57</v>
+        <v>16</v>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
       </c>
       <c r="Q72" t="n">
-        <v>57</v>
+        <v>38.92131124</v>
       </c>
       <c r="R72" t="n">
-        <v>57</v>
-      </c>
-      <c r="S72" t="inlineStr">
-        <is>
-          <t>blunt object</t>
-        </is>
-      </c>
-      <c r="T72" t="inlineStr">
-        <is>
-          <t>argument</t>
-        </is>
-      </c>
-      <c r="U72" t="inlineStr">
-        <is>
-          <t>gaston brakes</t>
-        </is>
-      </c>
-      <c r="V72" t="inlineStr">
-        <is>
-          <t>gaston</t>
-        </is>
+        <v>-77.03357609</v>
+      </c>
+      <c r="S72" t="n">
+        <v>18</v>
+      </c>
+      <c r="T72" t="n">
+        <v>18</v>
+      </c>
+      <c r="U72" t="n">
+        <v>18</v>
+      </c>
+      <c r="V72" t="n">
+        <v>18</v>
       </c>
       <c r="W72" t="inlineStr">
         <is>
-          <t>brakes</t>
-        </is>
-      </c>
-      <c r="X72" t="n">
+          <t>handgun</t>
+        </is>
+      </c>
+      <c r="X72" t="inlineStr">
+        <is>
+          <t>robbery</t>
+        </is>
+      </c>
+      <c r="Y72" t="inlineStr">
+        <is>
+          <t>wayne perkins</t>
+        </is>
+      </c>
+      <c r="Z72" t="inlineStr">
+        <is>
+          <t>wayne</t>
+        </is>
+      </c>
+      <c r="AA72" t="inlineStr">
+        <is>
+          <t>perkins</t>
+        </is>
+      </c>
+      <c r="AB72" t="n">
         <v>1</v>
       </c>
-      <c r="Y72" t="inlineStr">
-        <is>
-          <t>100034545</t>
-        </is>
-      </c>
-      <c r="Z72" t="inlineStr">
+      <c r="AC72" t="inlineStr">
+        <is>
+          <t>100035465</t>
+        </is>
+      </c>
+      <c r="AD72" t="inlineStr">
         <is>
           <t>unmatched_entity</t>
         </is>
       </c>
-      <c r="AA72" t="n">
+      <c r="AE72" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13492,41 +13972,41 @@
           <t>male</t>
         </is>
       </c>
-      <c r="M73" t="n">
+      <c r="Q73" t="n">
         <v>38.92131124</v>
       </c>
-      <c r="N73" t="n">
+      <c r="R73" t="n">
         <v>-77.03357609</v>
       </c>
-      <c r="S73" t="inlineStr">
+      <c r="W73" t="inlineStr">
         <is>
           <t>handgun</t>
         </is>
       </c>
-      <c r="T73" t="inlineStr">
+      <c r="X73" t="inlineStr">
         <is>
           <t>robbery</t>
         </is>
       </c>
-      <c r="U73" t="inlineStr">
+      <c r="Y73" t="inlineStr">
         <is>
           <t>Wayne Perkins</t>
         </is>
       </c>
-      <c r="X73" t="n">
+      <c r="AB73" t="n">
         <v>1</v>
       </c>
-      <c r="Y73" t="inlineStr">
+      <c r="AC73" t="inlineStr">
         <is>
           <t>100035465</t>
         </is>
       </c>
-      <c r="Z73" t="inlineStr">
+      <c r="AD73" t="inlineStr">
         <is>
           <t>singleton_orphan</t>
         </is>
       </c>
-      <c r="AA73" t="n">
+      <c r="AE73" t="n">
         <v>2</v>
       </c>
     </row>
@@ -13667,62 +14147,70 @@
         </is>
       </c>
       <c r="M74" t="n">
+        <v>36</v>
+      </c>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="Q74" t="n">
         <v>38.8671388000663</v>
       </c>
-      <c r="N74" t="n">
+      <c r="R74" t="n">
         <v>-76.9883434498142</v>
       </c>
-      <c r="O74" t="n">
+      <c r="S74" t="n">
         <v>27</v>
       </c>
-      <c r="P74" t="n">
+      <c r="T74" t="n">
         <v>27</v>
       </c>
-      <c r="Q74" t="n">
+      <c r="U74" t="n">
         <v>27</v>
       </c>
-      <c r="R74" t="n">
+      <c r="V74" t="n">
         <v>27</v>
       </c>
-      <c r="S74" t="inlineStr">
+      <c r="W74" t="inlineStr">
         <is>
           <t>firearm</t>
         </is>
       </c>
-      <c r="T74" t="inlineStr">
+      <c r="X74" t="inlineStr">
         <is>
           <t>lover's triangle</t>
         </is>
       </c>
-      <c r="U74" t="inlineStr">
+      <c r="Y74" t="inlineStr">
         <is>
           <t>james garay</t>
         </is>
       </c>
-      <c r="V74" t="inlineStr">
+      <c r="Z74" t="inlineStr">
         <is>
           <t>james</t>
         </is>
       </c>
-      <c r="W74" t="inlineStr">
+      <c r="AA74" t="inlineStr">
         <is>
           <t>garay</t>
         </is>
       </c>
-      <c r="X74" t="n">
+      <c r="AB74" t="n">
         <v>1</v>
       </c>
-      <c r="Y74" t="inlineStr">
+      <c r="AC74" t="inlineStr">
         <is>
           <t>100035712</t>
         </is>
       </c>
-      <c r="Z74" t="inlineStr">
+      <c r="AD74" t="inlineStr">
         <is>
           <t>unmatched_entity</t>
         </is>
       </c>
-      <c r="AA74" t="n">
+      <c r="AE74" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13863,62 +14351,70 @@
         </is>
       </c>
       <c r="M75" t="n">
+        <v>36</v>
+      </c>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="Q75" t="n">
         <v>38.8671388000663</v>
       </c>
-      <c r="N75" t="n">
+      <c r="R75" t="n">
         <v>-76.9883434498142</v>
       </c>
-      <c r="O75" t="n">
+      <c r="S75" t="n">
         <v>41</v>
       </c>
-      <c r="P75" t="n">
+      <c r="T75" t="n">
         <v>41</v>
       </c>
-      <c r="Q75" t="n">
+      <c r="U75" t="n">
         <v>41</v>
       </c>
-      <c r="R75" t="n">
+      <c r="V75" t="n">
         <v>41</v>
       </c>
-      <c r="S75" t="inlineStr">
+      <c r="W75" t="inlineStr">
         <is>
           <t>firearm</t>
         </is>
       </c>
-      <c r="T75" t="inlineStr">
+      <c r="X75" t="inlineStr">
         <is>
           <t>lover's triangle</t>
         </is>
       </c>
-      <c r="U75" t="inlineStr">
+      <c r="Y75" t="inlineStr">
         <is>
           <t>james garay</t>
         </is>
       </c>
-      <c r="V75" t="inlineStr">
+      <c r="Z75" t="inlineStr">
         <is>
           <t>james</t>
         </is>
       </c>
-      <c r="W75" t="inlineStr">
+      <c r="AA75" t="inlineStr">
         <is>
           <t>garay</t>
         </is>
       </c>
-      <c r="X75" t="n">
+      <c r="AB75" t="n">
         <v>1</v>
       </c>
-      <c r="Y75" t="inlineStr">
+      <c r="AC75" t="inlineStr">
         <is>
           <t>100035712</t>
         </is>
       </c>
-      <c r="Z75" t="inlineStr">
+      <c r="AD75" t="inlineStr">
         <is>
           <t>unmatched_entity</t>
         </is>
       </c>
-      <c r="AA75" t="n">
+      <c r="AE75" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14058,43 +14554,43 @@
           <t>female</t>
         </is>
       </c>
-      <c r="M76" t="n">
+      <c r="Q76" t="n">
         <v>38.9062299717966</v>
       </c>
-      <c r="N76" t="n">
+      <c r="R76" t="n">
         <v>-76.9983364516077</v>
       </c>
-      <c r="O76" t="n">
+      <c r="S76" t="n">
         <v>26</v>
       </c>
-      <c r="P76" t="n">
+      <c r="T76" t="n">
         <v>26</v>
       </c>
-      <c r="Q76" t="n">
+      <c r="U76" t="n">
         <v>26</v>
       </c>
-      <c r="R76" t="n">
+      <c r="V76" t="n">
         <v>26</v>
       </c>
-      <c r="S76" t="inlineStr">
+      <c r="W76" t="inlineStr">
         <is>
           <t>firearm</t>
         </is>
       </c>
-      <c r="X76" t="n">
+      <c r="AB76" t="n">
         <v>1</v>
       </c>
-      <c r="Y76" t="inlineStr">
+      <c r="AC76" t="inlineStr">
         <is>
           <t>100037114</t>
         </is>
       </c>
-      <c r="Z76" t="inlineStr">
+      <c r="AD76" t="inlineStr">
         <is>
           <t>unmatched_entity</t>
         </is>
       </c>
-      <c r="AA76" t="n">
+      <c r="AE76" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14121,30 +14617,30 @@
       <c r="H77" t="n">
         <v>2882</v>
       </c>
-      <c r="S77" t="inlineStr">
+      <c r="W77" t="inlineStr">
         <is>
           <t>firearm</t>
         </is>
       </c>
-      <c r="T77" t="inlineStr">
+      <c r="X77" t="inlineStr">
         <is>
           <t>undetermined</t>
         </is>
       </c>
-      <c r="X77" t="n">
+      <c r="AB77" t="n">
         <v>1</v>
       </c>
-      <c r="Y77" t="inlineStr">
+      <c r="AC77" t="inlineStr">
         <is>
           <t>100037808</t>
         </is>
       </c>
-      <c r="Z77" t="inlineStr">
+      <c r="AD77" t="inlineStr">
         <is>
           <t>singleton_orphan</t>
         </is>
       </c>
-      <c r="AA77" t="n">
+      <c r="AE77" t="n">
         <v>2</v>
       </c>
     </row>
@@ -14284,57 +14780,65 @@
           <t>male</t>
         </is>
       </c>
-      <c r="O78" t="n">
+      <c r="M78" t="n">
+        <v>31</v>
+      </c>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="S78" t="n">
         <v>25</v>
       </c>
-      <c r="P78" t="n">
+      <c r="T78" t="n">
         <v>25</v>
       </c>
-      <c r="Q78" t="n">
+      <c r="U78" t="n">
         <v>25</v>
       </c>
-      <c r="R78" t="n">
+      <c r="V78" t="n">
         <v>25</v>
       </c>
-      <c r="S78" t="inlineStr">
+      <c r="W78" t="inlineStr">
         <is>
           <t>firearm</t>
         </is>
       </c>
-      <c r="T78" t="inlineStr">
+      <c r="X78" t="inlineStr">
         <is>
           <t>robbery</t>
         </is>
       </c>
-      <c r="U78" t="inlineStr">
+      <c r="Y78" t="inlineStr">
         <is>
           <t>james head</t>
         </is>
       </c>
-      <c r="V78" t="inlineStr">
+      <c r="Z78" t="inlineStr">
         <is>
           <t>james</t>
         </is>
       </c>
-      <c r="W78" t="inlineStr">
+      <c r="AA78" t="inlineStr">
         <is>
           <t>head</t>
         </is>
       </c>
-      <c r="X78" t="n">
+      <c r="AB78" t="n">
         <v>2</v>
       </c>
-      <c r="Y78" t="inlineStr">
-        <is>
-          <t>100040873,100040692</t>
-        </is>
-      </c>
-      <c r="Z78" t="inlineStr">
+      <c r="AC78" t="inlineStr">
+        <is>
+          <t>100040692,100040873</t>
+        </is>
+      </c>
+      <c r="AD78" t="inlineStr">
         <is>
           <t>unmatched_entity</t>
         </is>
       </c>
-      <c r="AA78" t="n">
+      <c r="AE78" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14475,62 +14979,70 @@
         </is>
       </c>
       <c r="M79" t="n">
+        <v>31</v>
+      </c>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="Q79" t="n">
         <v>38.8841290284262</v>
       </c>
-      <c r="N79" t="n">
+      <c r="R79" t="n">
         <v>-76.9307169045053</v>
       </c>
-      <c r="O79" t="n">
+      <c r="S79" t="n">
         <v>24</v>
       </c>
-      <c r="P79" t="n">
+      <c r="T79" t="n">
         <v>24</v>
       </c>
-      <c r="Q79" t="n">
+      <c r="U79" t="n">
         <v>24</v>
       </c>
-      <c r="R79" t="n">
+      <c r="V79" t="n">
         <v>24</v>
       </c>
-      <c r="S79" t="inlineStr">
+      <c r="W79" t="inlineStr">
         <is>
           <t>firearm</t>
         </is>
       </c>
-      <c r="T79" t="inlineStr">
+      <c r="X79" t="inlineStr">
         <is>
           <t>robbery</t>
         </is>
       </c>
-      <c r="U79" t="inlineStr">
+      <c r="Y79" t="inlineStr">
         <is>
           <t>james head</t>
         </is>
       </c>
-      <c r="V79" t="inlineStr">
+      <c r="Z79" t="inlineStr">
         <is>
           <t>james</t>
         </is>
       </c>
-      <c r="W79" t="inlineStr">
+      <c r="AA79" t="inlineStr">
         <is>
           <t>head</t>
         </is>
       </c>
-      <c r="X79" t="n">
+      <c r="AB79" t="n">
         <v>2</v>
       </c>
-      <c r="Y79" t="inlineStr">
+      <c r="AC79" t="inlineStr">
         <is>
           <t>100040873,100040692</t>
         </is>
       </c>
-      <c r="Z79" t="inlineStr">
+      <c r="AD79" t="inlineStr">
         <is>
           <t>unmatched_entity</t>
         </is>
       </c>
-      <c r="AA79" t="n">
+      <c r="AE79" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14671,62 +15183,70 @@
         </is>
       </c>
       <c r="M80" t="n">
+        <v>26</v>
+      </c>
+      <c r="N80" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="Q80" t="n">
         <v>38.8840648592851</v>
       </c>
-      <c r="N80" t="n">
+      <c r="R80" t="n">
         <v>-76.95686087735351</v>
       </c>
-      <c r="O80" t="n">
+      <c r="S80" t="n">
         <v>43</v>
       </c>
-      <c r="P80" t="n">
+      <c r="T80" t="n">
         <v>43</v>
       </c>
-      <c r="Q80" t="n">
+      <c r="U80" t="n">
         <v>43</v>
       </c>
-      <c r="R80" t="n">
+      <c r="V80" t="n">
         <v>43</v>
       </c>
-      <c r="S80" t="inlineStr">
+      <c r="W80" t="inlineStr">
         <is>
           <t>knife</t>
         </is>
       </c>
-      <c r="T80" t="inlineStr">
+      <c r="X80" t="inlineStr">
         <is>
           <t>lover's triangle</t>
         </is>
       </c>
-      <c r="U80" t="inlineStr">
+      <c r="Y80" t="inlineStr">
         <is>
           <t>charles philips</t>
         </is>
       </c>
-      <c r="V80" t="inlineStr">
+      <c r="Z80" t="inlineStr">
         <is>
           <t>charles</t>
         </is>
       </c>
-      <c r="W80" t="inlineStr">
+      <c r="AA80" t="inlineStr">
         <is>
           <t>philips</t>
         </is>
       </c>
-      <c r="X80" t="n">
+      <c r="AB80" t="n">
         <v>1</v>
       </c>
-      <c r="Y80" t="inlineStr">
+      <c r="AC80" t="inlineStr">
         <is>
           <t>100044168</t>
         </is>
       </c>
-      <c r="Z80" t="inlineStr">
+      <c r="AD80" t="inlineStr">
         <is>
           <t>unmatched_entity</t>
         </is>
       </c>
-      <c r="AA80" t="n">
+      <c r="AE80" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14867,62 +15387,70 @@
         </is>
       </c>
       <c r="M81" t="n">
+        <v>26</v>
+      </c>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="Q81" t="n">
         <v>38.8840648592851</v>
       </c>
-      <c r="N81" t="n">
+      <c r="R81" t="n">
         <v>-76.95686087735351</v>
       </c>
-      <c r="O81" t="n">
+      <c r="S81" t="n">
         <v>30</v>
       </c>
-      <c r="P81" t="n">
+      <c r="T81" t="n">
         <v>30</v>
       </c>
-      <c r="Q81" t="n">
+      <c r="U81" t="n">
         <v>30</v>
       </c>
-      <c r="R81" t="n">
+      <c r="V81" t="n">
         <v>30</v>
       </c>
-      <c r="S81" t="inlineStr">
+      <c r="W81" t="inlineStr">
         <is>
           <t>knife</t>
         </is>
       </c>
-      <c r="T81" t="inlineStr">
+      <c r="X81" t="inlineStr">
         <is>
           <t>brawl</t>
         </is>
       </c>
-      <c r="U81" t="inlineStr">
+      <c r="Y81" t="inlineStr">
         <is>
           <t>charles philips</t>
         </is>
       </c>
-      <c r="V81" t="inlineStr">
+      <c r="Z81" t="inlineStr">
         <is>
           <t>charles</t>
         </is>
       </c>
-      <c r="W81" t="inlineStr">
+      <c r="AA81" t="inlineStr">
         <is>
           <t>philips</t>
         </is>
       </c>
-      <c r="X81" t="n">
+      <c r="AB81" t="n">
         <v>1</v>
       </c>
-      <c r="Y81" t="inlineStr">
+      <c r="AC81" t="inlineStr">
         <is>
           <t>100044168</t>
         </is>
       </c>
-      <c r="Z81" t="inlineStr">
+      <c r="AD81" t="inlineStr">
         <is>
           <t>unmatched_entity</t>
         </is>
       </c>
-      <c r="AA81" t="n">
+      <c r="AE81" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15062,43 +15590,43 @@
           <t>female</t>
         </is>
       </c>
-      <c r="M82" t="n">
+      <c r="Q82" t="n">
         <v>38.90319026</v>
       </c>
-      <c r="N82" t="n">
+      <c r="R82" t="n">
         <v>-76.97243071</v>
       </c>
-      <c r="O82" t="n">
+      <c r="S82" t="n">
         <v>20</v>
       </c>
-      <c r="P82" t="n">
+      <c r="T82" t="n">
         <v>20</v>
       </c>
-      <c r="Q82" t="n">
+      <c r="U82" t="n">
         <v>20</v>
       </c>
-      <c r="R82" t="n">
+      <c r="V82" t="n">
         <v>20</v>
       </c>
-      <c r="S82" t="inlineStr">
+      <c r="W82" t="inlineStr">
         <is>
           <t>firearm</t>
         </is>
       </c>
-      <c r="X82" t="n">
+      <c r="AB82" t="n">
         <v>1</v>
       </c>
-      <c r="Y82" t="inlineStr">
+      <c r="AC82" t="inlineStr">
         <is>
           <t>100042269</t>
         </is>
       </c>
-      <c r="Z82" t="inlineStr">
+      <c r="AD82" t="inlineStr">
         <is>
           <t>unmatched_entity</t>
         </is>
       </c>
-      <c r="AA82" t="n">
+      <c r="AE82" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15239,62 +15767,70 @@
         </is>
       </c>
       <c r="M83" t="n">
+        <v>19</v>
+      </c>
+      <c r="N83" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="Q83" t="n">
         <v>38.8813219299484</v>
       </c>
-      <c r="N83" t="n">
+      <c r="R83" t="n">
         <v>-76.9268837050888</v>
       </c>
-      <c r="O83" t="n">
+      <c r="S83" t="n">
         <v>56</v>
       </c>
-      <c r="P83" t="n">
+      <c r="T83" t="n">
         <v>56</v>
       </c>
-      <c r="Q83" t="n">
+      <c r="U83" t="n">
         <v>56</v>
       </c>
-      <c r="R83" t="n">
+      <c r="V83" t="n">
         <v>56</v>
       </c>
-      <c r="S83" t="inlineStr">
+      <c r="W83" t="inlineStr">
         <is>
           <t>firearm</t>
         </is>
       </c>
-      <c r="T83" t="inlineStr">
+      <c r="X83" t="inlineStr">
         <is>
           <t>robbery</t>
         </is>
       </c>
-      <c r="U83" t="inlineStr">
+      <c r="Y83" t="inlineStr">
         <is>
           <t>michael short</t>
         </is>
       </c>
-      <c r="V83" t="inlineStr">
+      <c r="Z83" t="inlineStr">
         <is>
           <t>michael</t>
         </is>
       </c>
-      <c r="W83" t="inlineStr">
+      <c r="AA83" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="X83" t="n">
+      <c r="AB83" t="n">
         <v>1</v>
       </c>
-      <c r="Y83" t="inlineStr">
+      <c r="AC83" t="inlineStr">
         <is>
           <t>100044008</t>
         </is>
       </c>
-      <c r="Z83" t="inlineStr">
+      <c r="AD83" t="inlineStr">
         <is>
           <t>unmatched_entity</t>
         </is>
       </c>
-      <c r="AA83" t="n">
+      <c r="AE83" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15434,63 +15970,68 @@
           <t>male</t>
         </is>
       </c>
-      <c r="M84" t="n">
+      <c r="N84" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="Q84" t="n">
         <v>38.9203932</v>
       </c>
-      <c r="N84" t="n">
+      <c r="R84" t="n">
         <v>-77.00221635</v>
       </c>
-      <c r="O84" t="n">
+      <c r="S84" t="n">
         <v>24</v>
       </c>
-      <c r="P84" t="n">
+      <c r="T84" t="n">
         <v>24</v>
       </c>
-      <c r="Q84" t="n">
+      <c r="U84" t="n">
         <v>24</v>
       </c>
-      <c r="R84" t="n">
+      <c r="V84" t="n">
         <v>24</v>
       </c>
-      <c r="S84" t="inlineStr">
+      <c r="W84" t="inlineStr">
         <is>
           <t>firearm</t>
         </is>
       </c>
-      <c r="T84" t="inlineStr">
+      <c r="X84" t="inlineStr">
         <is>
           <t>argument</t>
         </is>
       </c>
-      <c r="U84" t="inlineStr">
+      <c r="Y84" t="inlineStr">
         <is>
           <t>james jackson</t>
         </is>
       </c>
-      <c r="V84" t="inlineStr">
+      <c r="Z84" t="inlineStr">
         <is>
           <t>james</t>
         </is>
       </c>
-      <c r="W84" t="inlineStr">
+      <c r="AA84" t="inlineStr">
         <is>
           <t>jackson</t>
         </is>
       </c>
-      <c r="X84" t="n">
+      <c r="AB84" t="n">
         <v>1</v>
       </c>
-      <c r="Y84" t="inlineStr">
+      <c r="AC84" t="inlineStr">
         <is>
           <t>100044573</t>
         </is>
       </c>
-      <c r="Z84" t="inlineStr">
+      <c r="AD84" t="inlineStr">
         <is>
           <t>unmatched_entity</t>
         </is>
       </c>
-      <c r="AA84" t="n">
+      <c r="AE84" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15631,75 +16172,83 @@
         </is>
       </c>
       <c r="M85" t="n">
+        <v>26</v>
+      </c>
+      <c r="N85" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="Q85" t="n">
         <v>38.91091482</v>
       </c>
-      <c r="N85" t="n">
+      <c r="R85" t="n">
         <v>-77.03129127</v>
       </c>
-      <c r="O85" t="n">
+      <c r="S85" t="n">
         <v>59</v>
       </c>
-      <c r="P85" t="n">
+      <c r="T85" t="n">
         <v>59</v>
       </c>
-      <c r="Q85" t="n">
+      <c r="U85" t="n">
         <v>59</v>
       </c>
-      <c r="R85" t="n">
+      <c r="V85" t="n">
         <v>59</v>
       </c>
-      <c r="S85" t="inlineStr">
+      <c r="W85" t="inlineStr">
         <is>
           <t>handgun</t>
         </is>
       </c>
-      <c r="T85" t="inlineStr">
+      <c r="X85" t="inlineStr">
         <is>
           <t>brawl</t>
         </is>
       </c>
-      <c r="U85" t="inlineStr">
+      <c r="Y85" t="inlineStr">
         <is>
           <t>deborah weinsheimer</t>
         </is>
       </c>
-      <c r="V85" t="inlineStr">
+      <c r="Z85" t="inlineStr">
         <is>
           <t>deborah</t>
         </is>
       </c>
-      <c r="W85" t="inlineStr">
+      <c r="AA85" t="inlineStr">
         <is>
           <t>weinsheimer</t>
         </is>
       </c>
-      <c r="X85" t="n">
+      <c r="AB85" t="n">
         <v>1</v>
       </c>
-      <c r="Y85" t="inlineStr">
+      <c r="AC85" t="inlineStr">
         <is>
           <t>100045513</t>
         </is>
       </c>
-      <c r="Z85" t="inlineStr">
+      <c r="AD85" t="inlineStr">
         <is>
           <t>unmatched_entity</t>
         </is>
       </c>
-      <c r="AA85" t="n">
+      <c r="AE85" t="n">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:AA85">
+  <conditionalFormatting sqref="A2:AE85">
     <cfRule type="expression" priority="1" dxfId="0">
-      <formula>$AA2 = 0</formula>
+      <formula>$AE2 = 0</formula>
     </cfRule>
     <cfRule type="expression" priority="2" dxfId="1">
-      <formula>$AA2 = 1</formula>
+      <formula>$AE2 = 1</formula>
     </cfRule>
     <cfRule type="expression" priority="3" dxfId="2">
-      <formula>$AA2 = 2</formula>
+      <formula>$AE2 = 2</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/final_victim_entities.xlsx
+++ b/final_victim_entities.xlsx
@@ -4106,7 +4106,7 @@
       </c>
       <c r="AC20" t="inlineStr">
         <is>
-          <t>100058678,100058475,100059331,100058703</t>
+          <t>100000630,100003860,100004797,100005130,100005142,100005343,100005529,100005672,100006040,100006665,100006914,100007421,100007633,100007850,100008057,100008271,100008720,100009117,100009343,100009540,100009955,100010176,100010555,100010695,100010866,100011439,100011720,100011948,100012056,100012231,100012535,100012697,100012998,100013222,100013406,100013797,100014050,100014281,100014516,100014712,100014763,100014945,100015121,100021629,100022213,100022856,100034475,100042961,100058441,100058475,100058633,100058671,100058672,100058678,100058703,100058815,100058816,100058818,100058855,100058860,100058911,100058989,100059331,100059389,100059585,100060120,100060514,100060655,100060667,100062039,100062533,100064190,100064636,100065062,100066648,100068099</t>
         </is>
       </c>
       <c r="AD20" t="inlineStr">
